--- a/ranking.xlsx
+++ b/ranking.xlsx
@@ -12762,7 +12762,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Dominik Hrestak</t>
+          <t>Darko Laklija</t>
         </is>
       </c>
       <c r="B193" t="n">
@@ -12890,7 +12890,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Darko Laklija</t>
+          <t>Filip Drezgić</t>
         </is>
       </c>
       <c r="B195" t="n">
@@ -12954,7 +12954,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Filip Drezgić</t>
+          <t>Dominik Hrestak</t>
         </is>
       </c>
       <c r="B196" t="n">
@@ -14298,7 +14298,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Vladimir Dadić</t>
+          <t>Ivan Požežanac-Hajić</t>
         </is>
       </c>
       <c r="B217" t="n">
@@ -14362,7 +14362,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Ivan Požežanac-Hajić</t>
+          <t>Vladimir Dadić</t>
         </is>
       </c>
       <c r="B218" t="n">
@@ -14874,7 +14874,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Antun Akšamović</t>
+          <t>Ljerka Karleuša Mujkić</t>
         </is>
       </c>
       <c r="B226" t="n">
@@ -14938,7 +14938,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Ljerka Karleuša Mujkić</t>
+          <t>Antun Akšamović</t>
         </is>
       </c>
       <c r="B227" t="n">
@@ -15322,7 +15322,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>Ivan Radun</t>
+          <t>Krste Gašperov</t>
         </is>
       </c>
       <c r="B233" t="n">
@@ -15450,7 +15450,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Krste Gašperov</t>
+          <t>Ivan Radun</t>
         </is>
       </c>
       <c r="B235" t="n">
@@ -15898,7 +15898,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>Jakov Kusić</t>
+          <t>Matko Kreber</t>
         </is>
       </c>
       <c r="B242" t="n">
@@ -15962,7 +15962,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>Matko Kreber</t>
+          <t>Jakov Kusić</t>
         </is>
       </c>
       <c r="B243" t="n">
@@ -16154,7 +16154,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>Vedran Kos</t>
+          <t>Ivan Nešković</t>
         </is>
       </c>
       <c r="B246" t="n">
@@ -16218,7 +16218,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>Ivan Nešković</t>
+          <t>Vedran Kos</t>
         </is>
       </c>
       <c r="B247" t="n">
@@ -16410,7 +16410,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>Matko Dujmovic</t>
+          <t>Jurica Picak</t>
         </is>
       </c>
       <c r="B250" t="n">
@@ -16474,7 +16474,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>Jurica Picak</t>
+          <t>Kristian Bešker</t>
         </is>
       </c>
       <c r="B251" t="n">
@@ -16538,7 +16538,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>Kristian Bešker</t>
+          <t>Matko Dujmovic</t>
         </is>
       </c>
       <c r="B252" t="n">
@@ -16794,7 +16794,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>Bernard Grubišić</t>
+          <t>Hrvoje Ðurak</t>
         </is>
       </c>
       <c r="B256" t="n">
@@ -16858,7 +16858,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>Hrvoje Ðurak</t>
+          <t>Bernard Grubišić</t>
         </is>
       </c>
       <c r="B257" t="n">
@@ -16922,7 +16922,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>Marin Petrović</t>
+          <t>Filip Kopecki</t>
         </is>
       </c>
       <c r="B258" t="n">
@@ -16986,7 +16986,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>Filip Kopecki</t>
+          <t>Arandjel Smiljanic</t>
         </is>
       </c>
       <c r="B259" t="n">
@@ -17050,7 +17050,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>Arandjel Smiljanic</t>
+          <t>Marin Petrović</t>
         </is>
       </c>
       <c r="B260" t="n">
@@ -18394,7 +18394,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>Ivan Skorić</t>
+          <t>Paško Majcenović</t>
         </is>
       </c>
       <c r="B281" t="n">
@@ -18458,7 +18458,7 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>Paško Majcenović</t>
+          <t>Ivan Skorić</t>
         </is>
       </c>
       <c r="B282" t="n">
@@ -18778,7 +18778,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>Nikola Philipp</t>
+          <t>David Koprek</t>
         </is>
       </c>
       <c r="B287" t="n">
@@ -18815,7 +18815,7 @@
         <v>0</v>
       </c>
       <c r="M287" t="n">
-        <v>0</v>
+        <v>56.89655172413793</v>
       </c>
       <c r="N287" t="n">
         <v>0</v>
@@ -18827,7 +18827,7 @@
         <v>0</v>
       </c>
       <c r="Q287" t="n">
-        <v>56.89655172413793</v>
+        <v>0</v>
       </c>
       <c r="R287" t="n">
         <v>0</v>
@@ -18842,7 +18842,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>Dario Galinec</t>
+          <t>Nikola Philipp</t>
         </is>
       </c>
       <c r="B288" t="n">
@@ -18906,7 +18906,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>David Koprek</t>
+          <t>Dario Galinec</t>
         </is>
       </c>
       <c r="B289" t="n">
@@ -18943,19 +18943,19 @@
         <v>0</v>
       </c>
       <c r="M289" t="n">
+        <v>0</v>
+      </c>
+      <c r="N289" t="n">
+        <v>0</v>
+      </c>
+      <c r="O289" t="n">
+        <v>0</v>
+      </c>
+      <c r="P289" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q289" t="n">
         <v>56.89655172413793</v>
-      </c>
-      <c r="N289" t="n">
-        <v>0</v>
-      </c>
-      <c r="O289" t="n">
-        <v>0</v>
-      </c>
-      <c r="P289" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q289" t="n">
-        <v>0</v>
       </c>
       <c r="R289" t="n">
         <v>0</v>
@@ -19098,7 +19098,7 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>Marko Mandarić</t>
+          <t>Ozren Naglav</t>
         </is>
       </c>
       <c r="B292" t="n">
@@ -19162,7 +19162,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>Ozren Naglav</t>
+          <t>Marko Mandarić</t>
         </is>
       </c>
       <c r="B293" t="n">
@@ -19354,7 +19354,7 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>Željko Pavlović</t>
+          <t>Ivan Horvat</t>
         </is>
       </c>
       <c r="B296" t="n">
@@ -19418,7 +19418,7 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>Ivan Horvat</t>
+          <t>Željko Pavlović</t>
         </is>
       </c>
       <c r="B297" t="n">
@@ -20058,7 +20058,7 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>Bruno Grbavac</t>
+          <t>Srđan Bilić</t>
         </is>
       </c>
       <c r="B307" t="n">
@@ -20122,7 +20122,7 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>Srđan Bilić</t>
+          <t>Bruno Grbavac</t>
         </is>
       </c>
       <c r="B308" t="n">
@@ -20442,7 +20442,7 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>Dunja Galinec</t>
+          <t>Ante Varvoda</t>
         </is>
       </c>
       <c r="B313" t="n">
@@ -20570,7 +20570,7 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>Ante Varvoda</t>
+          <t>Dunja Galinec</t>
         </is>
       </c>
       <c r="B315" t="n">
@@ -21274,7 +21274,7 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>Matej Simić</t>
+          <t>Karlo Biličić</t>
         </is>
       </c>
       <c r="B326" t="n">
@@ -21338,7 +21338,7 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>Karlo Biličić</t>
+          <t>Matej Simić</t>
         </is>
       </c>
       <c r="B327" t="n">
@@ -21786,7 +21786,7 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>Zoran Lendić</t>
+          <t>Danijel Kovačević</t>
         </is>
       </c>
       <c r="B334" t="n">
@@ -21850,7 +21850,7 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>Danijel Kovačević</t>
+          <t>Zoran Lendić</t>
         </is>
       </c>
       <c r="B335" t="n">
@@ -22362,7 +22362,7 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>Miroslav Klen</t>
+          <t>Ivan Salečić</t>
         </is>
       </c>
       <c r="B343" t="n">
@@ -22378,13 +22378,13 @@
         <v>0</v>
       </c>
       <c r="F343" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G343" t="n">
         <v>0</v>
       </c>
       <c r="H343" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="I343" t="n">
         <v>0</v>
@@ -22426,7 +22426,7 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>Ivan Salečić</t>
+          <t>Miroslav Klen</t>
         </is>
       </c>
       <c r="B344" t="n">
@@ -22442,13 +22442,13 @@
         <v>0</v>
       </c>
       <c r="F344" t="n">
+        <v>0</v>
+      </c>
+      <c r="G344" t="n">
+        <v>0</v>
+      </c>
+      <c r="H344" t="n">
         <v>40</v>
-      </c>
-      <c r="G344" t="n">
-        <v>0</v>
-      </c>
-      <c r="H344" t="n">
-        <v>0</v>
       </c>
       <c r="I344" t="n">
         <v>0</v>
@@ -23834,7 +23834,7 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>Darka Pribudić</t>
+          <t>Slaven Periškić</t>
         </is>
       </c>
       <c r="B366" t="n">
@@ -23853,16 +23853,16 @@
         <v>0</v>
       </c>
       <c r="G366" t="n">
+        <v>0</v>
+      </c>
+      <c r="H366" t="n">
+        <v>0</v>
+      </c>
+      <c r="I366" t="n">
+        <v>0</v>
+      </c>
+      <c r="J366" t="n">
         <v>26.66666666666666</v>
-      </c>
-      <c r="H366" t="n">
-        <v>0</v>
-      </c>
-      <c r="I366" t="n">
-        <v>0</v>
-      </c>
-      <c r="J366" t="n">
-        <v>0</v>
       </c>
       <c r="K366" t="n">
         <v>0</v>
@@ -23898,7 +23898,7 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>Slaven Periškić</t>
+          <t>Darka Pribudić</t>
         </is>
       </c>
       <c r="B367" t="n">
@@ -23917,7 +23917,7 @@
         <v>0</v>
       </c>
       <c r="G367" t="n">
-        <v>0</v>
+        <v>26.66666666666666</v>
       </c>
       <c r="H367" t="n">
         <v>0</v>
@@ -23926,7 +23926,7 @@
         <v>0</v>
       </c>
       <c r="J367" t="n">
-        <v>26.66666666666666</v>
+        <v>0</v>
       </c>
       <c r="K367" t="n">
         <v>0</v>

--- a/ranking.xlsx
+++ b/ranking.xlsx
@@ -12762,7 +12762,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Darko Laklija</t>
+          <t>Dominik Hrestak</t>
         </is>
       </c>
       <c r="B193" t="n">
@@ -12890,7 +12890,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Filip Drezgić</t>
+          <t>Darko Laklija</t>
         </is>
       </c>
       <c r="B195" t="n">
@@ -12954,7 +12954,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Dominik Hrestak</t>
+          <t>Filip Drezgić</t>
         </is>
       </c>
       <c r="B196" t="n">
@@ -14298,7 +14298,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Ivan Požežanac-Hajić</t>
+          <t>Vladimir Dadić</t>
         </is>
       </c>
       <c r="B217" t="n">
@@ -14362,7 +14362,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Vladimir Dadić</t>
+          <t>Ivan Požežanac-Hajić</t>
         </is>
       </c>
       <c r="B218" t="n">
@@ -14874,7 +14874,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Ljerka Karleuša Mujkić</t>
+          <t>Antun Akšamović</t>
         </is>
       </c>
       <c r="B226" t="n">
@@ -14938,7 +14938,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Antun Akšamović</t>
+          <t>Ljerka Karleuša Mujkić</t>
         </is>
       </c>
       <c r="B227" t="n">
@@ -15322,7 +15322,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>Krste Gašperov</t>
+          <t>Ivan Radun</t>
         </is>
       </c>
       <c r="B233" t="n">
@@ -15450,7 +15450,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Ivan Radun</t>
+          <t>Krste Gašperov</t>
         </is>
       </c>
       <c r="B235" t="n">
@@ -15898,7 +15898,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>Matko Kreber</t>
+          <t>Jakov Kusić</t>
         </is>
       </c>
       <c r="B242" t="n">
@@ -15962,7 +15962,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>Jakov Kusić</t>
+          <t>Matko Kreber</t>
         </is>
       </c>
       <c r="B243" t="n">
@@ -16154,7 +16154,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>Ivan Nešković</t>
+          <t>Vedran Kos</t>
         </is>
       </c>
       <c r="B246" t="n">
@@ -16218,7 +16218,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>Vedran Kos</t>
+          <t>Ivan Nešković</t>
         </is>
       </c>
       <c r="B247" t="n">
@@ -16410,7 +16410,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>Jurica Picak</t>
+          <t>Matko Dujmovic</t>
         </is>
       </c>
       <c r="B250" t="n">
@@ -16474,7 +16474,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>Kristian Bešker</t>
+          <t>Jurica Picak</t>
         </is>
       </c>
       <c r="B251" t="n">
@@ -16538,7 +16538,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>Matko Dujmovic</t>
+          <t>Kristian Bešker</t>
         </is>
       </c>
       <c r="B252" t="n">
@@ -16794,7 +16794,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>Hrvoje Ðurak</t>
+          <t>Bernard Grubišić</t>
         </is>
       </c>
       <c r="B256" t="n">
@@ -16858,7 +16858,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>Bernard Grubišić</t>
+          <t>Hrvoje Ðurak</t>
         </is>
       </c>
       <c r="B257" t="n">
@@ -16922,7 +16922,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>Filip Kopecki</t>
+          <t>Marin Petrović</t>
         </is>
       </c>
       <c r="B258" t="n">
@@ -16986,7 +16986,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>Arandjel Smiljanic</t>
+          <t>Filip Kopecki</t>
         </is>
       </c>
       <c r="B259" t="n">
@@ -17050,7 +17050,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>Marin Petrović</t>
+          <t>Arandjel Smiljanic</t>
         </is>
       </c>
       <c r="B260" t="n">
@@ -18394,7 +18394,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>Paško Majcenović</t>
+          <t>Ivan Skorić</t>
         </is>
       </c>
       <c r="B281" t="n">
@@ -18458,7 +18458,7 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>Ivan Skorić</t>
+          <t>Paško Majcenović</t>
         </is>
       </c>
       <c r="B282" t="n">
@@ -18778,7 +18778,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>David Koprek</t>
+          <t>Nikola Philipp</t>
         </is>
       </c>
       <c r="B287" t="n">
@@ -18815,19 +18815,19 @@
         <v>0</v>
       </c>
       <c r="M287" t="n">
+        <v>0</v>
+      </c>
+      <c r="N287" t="n">
+        <v>0</v>
+      </c>
+      <c r="O287" t="n">
+        <v>0</v>
+      </c>
+      <c r="P287" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q287" t="n">
         <v>56.89655172413793</v>
-      </c>
-      <c r="N287" t="n">
-        <v>0</v>
-      </c>
-      <c r="O287" t="n">
-        <v>0</v>
-      </c>
-      <c r="P287" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q287" t="n">
-        <v>0</v>
       </c>
       <c r="R287" t="n">
         <v>0</v>
@@ -18842,7 +18842,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>Nikola Philipp</t>
+          <t>Dario Galinec</t>
         </is>
       </c>
       <c r="B288" t="n">
@@ -18906,7 +18906,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>Dario Galinec</t>
+          <t>David Koprek</t>
         </is>
       </c>
       <c r="B289" t="n">
@@ -18943,7 +18943,7 @@
         <v>0</v>
       </c>
       <c r="M289" t="n">
-        <v>0</v>
+        <v>56.89655172413793</v>
       </c>
       <c r="N289" t="n">
         <v>0</v>
@@ -18955,7 +18955,7 @@
         <v>0</v>
       </c>
       <c r="Q289" t="n">
-        <v>56.89655172413793</v>
+        <v>0</v>
       </c>
       <c r="R289" t="n">
         <v>0</v>
@@ -19098,7 +19098,7 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>Ozren Naglav</t>
+          <t>Marko Mandarić</t>
         </is>
       </c>
       <c r="B292" t="n">
@@ -19162,7 +19162,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>Marko Mandarić</t>
+          <t>Ozren Naglav</t>
         </is>
       </c>
       <c r="B293" t="n">
@@ -19354,7 +19354,7 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>Ivan Horvat</t>
+          <t>Željko Pavlović</t>
         </is>
       </c>
       <c r="B296" t="n">
@@ -19418,7 +19418,7 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>Željko Pavlović</t>
+          <t>Ivan Horvat</t>
         </is>
       </c>
       <c r="B297" t="n">
@@ -20058,7 +20058,7 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>Srđan Bilić</t>
+          <t>Bruno Grbavac</t>
         </is>
       </c>
       <c r="B307" t="n">
@@ -20122,7 +20122,7 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>Bruno Grbavac</t>
+          <t>Srđan Bilić</t>
         </is>
       </c>
       <c r="B308" t="n">
@@ -20442,7 +20442,7 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>Ante Varvoda</t>
+          <t>Dunja Galinec</t>
         </is>
       </c>
       <c r="B313" t="n">
@@ -20570,7 +20570,7 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>Dunja Galinec</t>
+          <t>Ante Varvoda</t>
         </is>
       </c>
       <c r="B315" t="n">
@@ -21274,7 +21274,7 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>Karlo Biličić</t>
+          <t>Matej Simić</t>
         </is>
       </c>
       <c r="B326" t="n">
@@ -21338,7 +21338,7 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>Matej Simić</t>
+          <t>Karlo Biličić</t>
         </is>
       </c>
       <c r="B327" t="n">
@@ -21786,7 +21786,7 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>Danijel Kovačević</t>
+          <t>Zoran Lendić</t>
         </is>
       </c>
       <c r="B334" t="n">
@@ -21850,7 +21850,7 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>Zoran Lendić</t>
+          <t>Danijel Kovačević</t>
         </is>
       </c>
       <c r="B335" t="n">
@@ -22362,7 +22362,7 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>Ivan Salečić</t>
+          <t>Miroslav Klen</t>
         </is>
       </c>
       <c r="B343" t="n">
@@ -22378,13 +22378,13 @@
         <v>0</v>
       </c>
       <c r="F343" t="n">
+        <v>0</v>
+      </c>
+      <c r="G343" t="n">
+        <v>0</v>
+      </c>
+      <c r="H343" t="n">
         <v>40</v>
-      </c>
-      <c r="G343" t="n">
-        <v>0</v>
-      </c>
-      <c r="H343" t="n">
-        <v>0</v>
       </c>
       <c r="I343" t="n">
         <v>0</v>
@@ -22426,7 +22426,7 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>Miroslav Klen</t>
+          <t>Ivan Salečić</t>
         </is>
       </c>
       <c r="B344" t="n">
@@ -22442,13 +22442,13 @@
         <v>0</v>
       </c>
       <c r="F344" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G344" t="n">
         <v>0</v>
       </c>
       <c r="H344" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="I344" t="n">
         <v>0</v>
@@ -23834,7 +23834,7 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>Slaven Periškić</t>
+          <t>Darka Pribudić</t>
         </is>
       </c>
       <c r="B366" t="n">
@@ -23853,7 +23853,7 @@
         <v>0</v>
       </c>
       <c r="G366" t="n">
-        <v>0</v>
+        <v>26.66666666666666</v>
       </c>
       <c r="H366" t="n">
         <v>0</v>
@@ -23862,7 +23862,7 @@
         <v>0</v>
       </c>
       <c r="J366" t="n">
-        <v>26.66666666666666</v>
+        <v>0</v>
       </c>
       <c r="K366" t="n">
         <v>0</v>
@@ -23898,7 +23898,7 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>Darka Pribudić</t>
+          <t>Slaven Periškić</t>
         </is>
       </c>
       <c r="B367" t="n">
@@ -23917,16 +23917,16 @@
         <v>0</v>
       </c>
       <c r="G367" t="n">
+        <v>0</v>
+      </c>
+      <c r="H367" t="n">
+        <v>0</v>
+      </c>
+      <c r="I367" t="n">
+        <v>0</v>
+      </c>
+      <c r="J367" t="n">
         <v>26.66666666666666</v>
-      </c>
-      <c r="H367" t="n">
-        <v>0</v>
-      </c>
-      <c r="I367" t="n">
-        <v>0</v>
-      </c>
-      <c r="J367" t="n">
-        <v>0</v>
       </c>
       <c r="K367" t="n">
         <v>0</v>

--- a/ranking.xlsx
+++ b/ranking.xlsx
@@ -11606,7 +11606,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Darko Laklija</t>
+          <t>Dominik Hrestak</t>
         </is>
       </c>
       <c r="B193" t="n">
@@ -11722,7 +11722,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Filip Drezgić</t>
+          <t>Darko Laklija</t>
         </is>
       </c>
       <c r="B195" t="n">
@@ -11780,7 +11780,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Dominik Hrestak</t>
+          <t>Filip Drezgić</t>
         </is>
       </c>
       <c r="B196" t="n">
@@ -12998,7 +12998,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Ivan Požežanac-Hajić</t>
+          <t>Vladimir Dadić</t>
         </is>
       </c>
       <c r="B217" t="n">
@@ -13056,7 +13056,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Vladimir Dadić</t>
+          <t>Ivan Požežanac-Hajić</t>
         </is>
       </c>
       <c r="B218" t="n">
@@ -13520,7 +13520,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Ljerka Karleuša Mujkić</t>
+          <t>Antun Akšamović</t>
         </is>
       </c>
       <c r="B226" t="n">
@@ -13578,7 +13578,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Antun Akšamović</t>
+          <t>Ljerka Karleuša Mujkić</t>
         </is>
       </c>
       <c r="B227" t="n">
@@ -13926,7 +13926,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>Krste Gašperov</t>
+          <t>Ivan Radun</t>
         </is>
       </c>
       <c r="B233" t="n">
@@ -14042,7 +14042,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Ivan Radun</t>
+          <t>Krste Gašperov</t>
         </is>
       </c>
       <c r="B235" t="n">
@@ -14448,7 +14448,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>Matko Kreber</t>
+          <t>Jakov Kusić</t>
         </is>
       </c>
       <c r="B242" t="n">
@@ -14506,7 +14506,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>Jakov Kusić</t>
+          <t>Matko Kreber</t>
         </is>
       </c>
       <c r="B243" t="n">
@@ -14680,7 +14680,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>Ivan Nešković</t>
+          <t>Vedran Kos</t>
         </is>
       </c>
       <c r="B246" t="n">
@@ -14738,7 +14738,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>Vedran Kos</t>
+          <t>Ivan Nešković</t>
         </is>
       </c>
       <c r="B247" t="n">
@@ -14912,7 +14912,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>Jurica Picak</t>
+          <t>Matko Dujmovic</t>
         </is>
       </c>
       <c r="B250" t="n">
@@ -14970,7 +14970,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>Kristian Bešker</t>
+          <t>Jurica Picak</t>
         </is>
       </c>
       <c r="B251" t="n">
@@ -15028,7 +15028,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>Matko Dujmovic</t>
+          <t>Kristian Bešker</t>
         </is>
       </c>
       <c r="B252" t="n">
@@ -15260,7 +15260,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>Hrvoje Ðurak</t>
+          <t>Bernard Grubišić</t>
         </is>
       </c>
       <c r="B256" t="n">
@@ -15318,7 +15318,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>Bernard Grubišić</t>
+          <t>Hrvoje Ðurak</t>
         </is>
       </c>
       <c r="B257" t="n">
@@ -15376,7 +15376,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>Filip Kopecki</t>
+          <t>Marin Petrović</t>
         </is>
       </c>
       <c r="B258" t="n">
@@ -15434,7 +15434,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>Arandjel Smiljanic</t>
+          <t>Filip Kopecki</t>
         </is>
       </c>
       <c r="B259" t="n">
@@ -15492,7 +15492,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>Marin Petrović</t>
+          <t>Arandjel Smiljanic</t>
         </is>
       </c>
       <c r="B260" t="n">
@@ -16710,7 +16710,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>Paško Majcenović</t>
+          <t>Ivan Skorić</t>
         </is>
       </c>
       <c r="B281" t="n">
@@ -16768,7 +16768,7 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>Ivan Skorić</t>
+          <t>Paško Majcenović</t>
         </is>
       </c>
       <c r="B282" t="n">
@@ -17058,7 +17058,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>David Koprek</t>
+          <t>Nikola Philipp</t>
         </is>
       </c>
       <c r="B287" t="n">
@@ -17089,19 +17089,19 @@
         <v>0</v>
       </c>
       <c r="K287" t="n">
+        <v>0</v>
+      </c>
+      <c r="L287" t="n">
+        <v>0</v>
+      </c>
+      <c r="M287" t="n">
+        <v>0</v>
+      </c>
+      <c r="N287" t="n">
+        <v>0</v>
+      </c>
+      <c r="O287" t="n">
         <v>56.89655172413793</v>
-      </c>
-      <c r="L287" t="n">
-        <v>0</v>
-      </c>
-      <c r="M287" t="n">
-        <v>0</v>
-      </c>
-      <c r="N287" t="n">
-        <v>0</v>
-      </c>
-      <c r="O287" t="n">
-        <v>0</v>
       </c>
       <c r="P287" t="n">
         <v>0</v>
@@ -17116,7 +17116,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>Nikola Philipp</t>
+          <t>Dario Galinec</t>
         </is>
       </c>
       <c r="B288" t="n">
@@ -17174,7 +17174,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>Dario Galinec</t>
+          <t>David Koprek</t>
         </is>
       </c>
       <c r="B289" t="n">
@@ -17205,7 +17205,7 @@
         <v>0</v>
       </c>
       <c r="K289" t="n">
-        <v>0</v>
+        <v>56.89655172413793</v>
       </c>
       <c r="L289" t="n">
         <v>0</v>
@@ -17217,7 +17217,7 @@
         <v>0</v>
       </c>
       <c r="O289" t="n">
-        <v>56.89655172413793</v>
+        <v>0</v>
       </c>
       <c r="P289" t="n">
         <v>0</v>
@@ -17348,7 +17348,7 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>Ozren Naglav</t>
+          <t>Marko Mandarić</t>
         </is>
       </c>
       <c r="B292" t="n">
@@ -17406,7 +17406,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>Marko Mandarić</t>
+          <t>Ozren Naglav</t>
         </is>
       </c>
       <c r="B293" t="n">
@@ -17580,7 +17580,7 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>Ivan Horvat</t>
+          <t>Željko Pavlović</t>
         </is>
       </c>
       <c r="B296" t="n">
@@ -17638,7 +17638,7 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>Željko Pavlović</t>
+          <t>Ivan Horvat</t>
         </is>
       </c>
       <c r="B297" t="n">
@@ -18218,7 +18218,7 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>Srđan Bilić</t>
+          <t>Bruno Grbavac</t>
         </is>
       </c>
       <c r="B307" t="n">
@@ -18276,7 +18276,7 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>Bruno Grbavac</t>
+          <t>Srđan Bilić</t>
         </is>
       </c>
       <c r="B308" t="n">
@@ -18566,7 +18566,7 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>Ante Varvoda</t>
+          <t>Dunja Galinec</t>
         </is>
       </c>
       <c r="B313" t="n">
@@ -18682,7 +18682,7 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>Dunja Galinec</t>
+          <t>Ante Varvoda</t>
         </is>
       </c>
       <c r="B315" t="n">
@@ -19320,7 +19320,7 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>Karlo Biličić</t>
+          <t>Matej Simić</t>
         </is>
       </c>
       <c r="B326" t="n">
@@ -19378,7 +19378,7 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>Matej Simić</t>
+          <t>Karlo Biličić</t>
         </is>
       </c>
       <c r="B327" t="n">
@@ -19784,7 +19784,7 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>Danijel Kovačević</t>
+          <t>Zoran Lendić</t>
         </is>
       </c>
       <c r="B334" t="n">
@@ -19842,7 +19842,7 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>Zoran Lendić</t>
+          <t>Danijel Kovačević</t>
         </is>
       </c>
       <c r="B335" t="n">
@@ -20306,7 +20306,7 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>Ivan Salečić</t>
+          <t>Miroslav Klen</t>
         </is>
       </c>
       <c r="B343" t="n">
@@ -20316,13 +20316,13 @@
         <v>0</v>
       </c>
       <c r="D343" t="n">
+        <v>0</v>
+      </c>
+      <c r="E343" t="n">
+        <v>0</v>
+      </c>
+      <c r="F343" t="n">
         <v>40</v>
-      </c>
-      <c r="E343" t="n">
-        <v>0</v>
-      </c>
-      <c r="F343" t="n">
-        <v>0</v>
       </c>
       <c r="G343" t="n">
         <v>0</v>
@@ -20364,7 +20364,7 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>Miroslav Klen</t>
+          <t>Ivan Salečić</t>
         </is>
       </c>
       <c r="B344" t="n">
@@ -20374,13 +20374,13 @@
         <v>0</v>
       </c>
       <c r="D344" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="E344" t="n">
         <v>0</v>
       </c>
       <c r="F344" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G344" t="n">
         <v>0</v>
@@ -21640,7 +21640,7 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>Slaven Periškić</t>
+          <t>Darka Pribudić</t>
         </is>
       </c>
       <c r="B366" t="n">
@@ -21653,7 +21653,7 @@
         <v>0</v>
       </c>
       <c r="E366" t="n">
-        <v>0</v>
+        <v>26.66666666666666</v>
       </c>
       <c r="F366" t="n">
         <v>0</v>
@@ -21662,7 +21662,7 @@
         <v>0</v>
       </c>
       <c r="H366" t="n">
-        <v>26.66666666666666</v>
+        <v>0</v>
       </c>
       <c r="I366" t="n">
         <v>0</v>
@@ -21698,7 +21698,7 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>Darka Pribudić</t>
+          <t>Slaven Periškić</t>
         </is>
       </c>
       <c r="B367" t="n">
@@ -21711,16 +21711,16 @@
         <v>0</v>
       </c>
       <c r="E367" t="n">
+        <v>0</v>
+      </c>
+      <c r="F367" t="n">
+        <v>0</v>
+      </c>
+      <c r="G367" t="n">
+        <v>0</v>
+      </c>
+      <c r="H367" t="n">
         <v>26.66666666666666</v>
-      </c>
-      <c r="F367" t="n">
-        <v>0</v>
-      </c>
-      <c r="G367" t="n">
-        <v>0</v>
-      </c>
-      <c r="H367" t="n">
-        <v>0</v>
       </c>
       <c r="I367" t="n">
         <v>0</v>

--- a/ranking.xlsx
+++ b/ranking.xlsx
@@ -11606,7 +11606,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Dominik Hrestak</t>
+          <t>Darko Laklija</t>
         </is>
       </c>
       <c r="B193" t="n">
@@ -11722,7 +11722,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Darko Laklija</t>
+          <t>Filip Drezgić</t>
         </is>
       </c>
       <c r="B195" t="n">
@@ -11780,7 +11780,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Filip Drezgić</t>
+          <t>Dominik Hrestak</t>
         </is>
       </c>
       <c r="B196" t="n">
@@ -12998,7 +12998,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Vladimir Dadić</t>
+          <t>Ivan Požežanac-Hajić</t>
         </is>
       </c>
       <c r="B217" t="n">
@@ -13056,7 +13056,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Ivan Požežanac-Hajić</t>
+          <t>Vladimir Dadić</t>
         </is>
       </c>
       <c r="B218" t="n">
@@ -13520,7 +13520,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Antun Akšamović</t>
+          <t>Ljerka Karleuša Mujkić</t>
         </is>
       </c>
       <c r="B226" t="n">
@@ -13578,7 +13578,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Ljerka Karleuša Mujkić</t>
+          <t>Antun Akšamović</t>
         </is>
       </c>
       <c r="B227" t="n">
@@ -13926,7 +13926,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>Ivan Radun</t>
+          <t>Krste Gašperov</t>
         </is>
       </c>
       <c r="B233" t="n">
@@ -14042,7 +14042,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Krste Gašperov</t>
+          <t>Ivan Radun</t>
         </is>
       </c>
       <c r="B235" t="n">
@@ -14448,7 +14448,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>Jakov Kusić</t>
+          <t>Matko Kreber</t>
         </is>
       </c>
       <c r="B242" t="n">
@@ -14506,7 +14506,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>Matko Kreber</t>
+          <t>Jakov Kusić</t>
         </is>
       </c>
       <c r="B243" t="n">
@@ -14680,7 +14680,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>Vedran Kos</t>
+          <t>Ivan Nešković</t>
         </is>
       </c>
       <c r="B246" t="n">
@@ -14738,7 +14738,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>Ivan Nešković</t>
+          <t>Vedran Kos</t>
         </is>
       </c>
       <c r="B247" t="n">
@@ -14912,7 +14912,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>Matko Dujmovic</t>
+          <t>Jurica Picak</t>
         </is>
       </c>
       <c r="B250" t="n">
@@ -14970,7 +14970,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>Jurica Picak</t>
+          <t>Kristian Bešker</t>
         </is>
       </c>
       <c r="B251" t="n">
@@ -15028,7 +15028,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>Kristian Bešker</t>
+          <t>Matko Dujmovic</t>
         </is>
       </c>
       <c r="B252" t="n">
@@ -15260,7 +15260,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>Bernard Grubišić</t>
+          <t>Hrvoje Ðurak</t>
         </is>
       </c>
       <c r="B256" t="n">
@@ -15318,7 +15318,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>Hrvoje Ðurak</t>
+          <t>Bernard Grubišić</t>
         </is>
       </c>
       <c r="B257" t="n">
@@ -15376,7 +15376,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>Marin Petrović</t>
+          <t>Filip Kopecki</t>
         </is>
       </c>
       <c r="B258" t="n">
@@ -15434,7 +15434,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>Filip Kopecki</t>
+          <t>Arandjel Smiljanic</t>
         </is>
       </c>
       <c r="B259" t="n">
@@ -15492,7 +15492,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>Arandjel Smiljanic</t>
+          <t>Marin Petrović</t>
         </is>
       </c>
       <c r="B260" t="n">
@@ -16710,7 +16710,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>Ivan Skorić</t>
+          <t>Paško Majcenović</t>
         </is>
       </c>
       <c r="B281" t="n">
@@ -16768,7 +16768,7 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>Paško Majcenović</t>
+          <t>Ivan Skorić</t>
         </is>
       </c>
       <c r="B282" t="n">
@@ -17058,7 +17058,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>Nikola Philipp</t>
+          <t>David Koprek</t>
         </is>
       </c>
       <c r="B287" t="n">
@@ -17089,7 +17089,7 @@
         <v>0</v>
       </c>
       <c r="K287" t="n">
-        <v>0</v>
+        <v>56.89655172413793</v>
       </c>
       <c r="L287" t="n">
         <v>0</v>
@@ -17101,7 +17101,7 @@
         <v>0</v>
       </c>
       <c r="O287" t="n">
-        <v>56.89655172413793</v>
+        <v>0</v>
       </c>
       <c r="P287" t="n">
         <v>0</v>
@@ -17116,7 +17116,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>Dario Galinec</t>
+          <t>Nikola Philipp</t>
         </is>
       </c>
       <c r="B288" t="n">
@@ -17174,7 +17174,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>David Koprek</t>
+          <t>Dario Galinec</t>
         </is>
       </c>
       <c r="B289" t="n">
@@ -17205,19 +17205,19 @@
         <v>0</v>
       </c>
       <c r="K289" t="n">
+        <v>0</v>
+      </c>
+      <c r="L289" t="n">
+        <v>0</v>
+      </c>
+      <c r="M289" t="n">
+        <v>0</v>
+      </c>
+      <c r="N289" t="n">
+        <v>0</v>
+      </c>
+      <c r="O289" t="n">
         <v>56.89655172413793</v>
-      </c>
-      <c r="L289" t="n">
-        <v>0</v>
-      </c>
-      <c r="M289" t="n">
-        <v>0</v>
-      </c>
-      <c r="N289" t="n">
-        <v>0</v>
-      </c>
-      <c r="O289" t="n">
-        <v>0</v>
       </c>
       <c r="P289" t="n">
         <v>0</v>
@@ -17348,7 +17348,7 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>Marko Mandarić</t>
+          <t>Ozren Naglav</t>
         </is>
       </c>
       <c r="B292" t="n">
@@ -17406,7 +17406,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>Ozren Naglav</t>
+          <t>Marko Mandarić</t>
         </is>
       </c>
       <c r="B293" t="n">
@@ -17580,7 +17580,7 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>Željko Pavlović</t>
+          <t>Ivan Horvat</t>
         </is>
       </c>
       <c r="B296" t="n">
@@ -17638,7 +17638,7 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>Ivan Horvat</t>
+          <t>Željko Pavlović</t>
         </is>
       </c>
       <c r="B297" t="n">
@@ -18218,7 +18218,7 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>Bruno Grbavac</t>
+          <t>Srđan Bilić</t>
         </is>
       </c>
       <c r="B307" t="n">
@@ -18276,7 +18276,7 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>Srđan Bilić</t>
+          <t>Bruno Grbavac</t>
         </is>
       </c>
       <c r="B308" t="n">
@@ -18566,7 +18566,7 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>Dunja Galinec</t>
+          <t>Ante Varvoda</t>
         </is>
       </c>
       <c r="B313" t="n">
@@ -18682,7 +18682,7 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>Ante Varvoda</t>
+          <t>Dunja Galinec</t>
         </is>
       </c>
       <c r="B315" t="n">
@@ -19320,7 +19320,7 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>Matej Simić</t>
+          <t>Karlo Biličić</t>
         </is>
       </c>
       <c r="B326" t="n">
@@ -19378,7 +19378,7 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>Karlo Biličić</t>
+          <t>Matej Simić</t>
         </is>
       </c>
       <c r="B327" t="n">
@@ -19784,7 +19784,7 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>Zoran Lendić</t>
+          <t>Danijel Kovačević</t>
         </is>
       </c>
       <c r="B334" t="n">
@@ -19842,7 +19842,7 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>Danijel Kovačević</t>
+          <t>Zoran Lendić</t>
         </is>
       </c>
       <c r="B335" t="n">
@@ -20306,7 +20306,7 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>Miroslav Klen</t>
+          <t>Ivan Salečić</t>
         </is>
       </c>
       <c r="B343" t="n">
@@ -20316,13 +20316,13 @@
         <v>0</v>
       </c>
       <c r="D343" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="E343" t="n">
         <v>0</v>
       </c>
       <c r="F343" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G343" t="n">
         <v>0</v>
@@ -20364,7 +20364,7 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>Ivan Salečić</t>
+          <t>Miroslav Klen</t>
         </is>
       </c>
       <c r="B344" t="n">
@@ -20374,13 +20374,13 @@
         <v>0</v>
       </c>
       <c r="D344" t="n">
+        <v>0</v>
+      </c>
+      <c r="E344" t="n">
+        <v>0</v>
+      </c>
+      <c r="F344" t="n">
         <v>40</v>
-      </c>
-      <c r="E344" t="n">
-        <v>0</v>
-      </c>
-      <c r="F344" t="n">
-        <v>0</v>
       </c>
       <c r="G344" t="n">
         <v>0</v>
@@ -21640,7 +21640,7 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>Darka Pribudić</t>
+          <t>Slaven Periškić</t>
         </is>
       </c>
       <c r="B366" t="n">
@@ -21653,16 +21653,16 @@
         <v>0</v>
       </c>
       <c r="E366" t="n">
+        <v>0</v>
+      </c>
+      <c r="F366" t="n">
+        <v>0</v>
+      </c>
+      <c r="G366" t="n">
+        <v>0</v>
+      </c>
+      <c r="H366" t="n">
         <v>26.66666666666666</v>
-      </c>
-      <c r="F366" t="n">
-        <v>0</v>
-      </c>
-      <c r="G366" t="n">
-        <v>0</v>
-      </c>
-      <c r="H366" t="n">
-        <v>0</v>
       </c>
       <c r="I366" t="n">
         <v>0</v>
@@ -21698,7 +21698,7 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>Slaven Periškić</t>
+          <t>Darka Pribudić</t>
         </is>
       </c>
       <c r="B367" t="n">
@@ -21711,7 +21711,7 @@
         <v>0</v>
       </c>
       <c r="E367" t="n">
-        <v>0</v>
+        <v>26.66666666666666</v>
       </c>
       <c r="F367" t="n">
         <v>0</v>
@@ -21720,7 +21720,7 @@
         <v>0</v>
       </c>
       <c r="H367" t="n">
-        <v>26.66666666666666</v>
+        <v>0</v>
       </c>
       <c r="I367" t="n">
         <v>0</v>

--- a/ranking.xlsx
+++ b/ranking.xlsx
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1260.507854932692</v>
+        <v>1410.507854932692</v>
       </c>
       <c r="C2" t="n">
         <v>80</v>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1241.704402802677</v>
+        <v>1389.118195906125</v>
       </c>
       <c r="C3" t="n">
         <v>80</v>
@@ -648,7 +648,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1201.758908251531</v>
+        <v>1336.241666872221</v>
       </c>
       <c r="C4" t="n">
         <v>73.22033898305085</v>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1081.0201264025</v>
+        <v>1207.227022954225</v>
       </c>
       <c r="C5" t="n">
         <v>65.08474576271186</v>
@@ -764,7 +764,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1067.58774840601</v>
+        <v>1190.432575992216</v>
       </c>
       <c r="C6" t="n">
         <v>67.79661016949152</v>
@@ -818,520 +818,520 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Neven Trgovec</t>
+          <t>Mladen Vukorepa</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1056.985238695437</v>
+        <v>1170.873028436328</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>62.37288135593221</v>
       </c>
       <c r="D7" t="n">
-        <v>80</v>
+        <v>73.93939393939394</v>
       </c>
       <c r="E7" t="n">
-        <v>71.11111111111111</v>
+        <v>66.66666666666667</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>73.84615384615385</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>63.44827586206897</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>67.77777777777777</v>
       </c>
       <c r="I7" t="n">
-        <v>72.61538461538461</v>
+        <v>64</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>59.53488372093023</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>128.448275862069</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>162.1621621621622</v>
       </c>
       <c r="M7" t="n">
-        <v>194.3262411347518</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>148.9655172413793</v>
+        <v>121.0344827586207</v>
       </c>
       <c r="O7" t="n">
-        <v>147.4137931034483</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>142.5531914893617</v>
+        <v>128.7234042553191</v>
       </c>
       <c r="Q7" t="n">
-        <v>200</v>
+        <v>168.4210526315789</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>115.8536585365854</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Mladen Vukorepa</t>
+          <t>Goran Vesić</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1055.019369899742</v>
+        <v>1148.090665616518</v>
       </c>
       <c r="C8" t="n">
-        <v>62.37288135593221</v>
+        <v>56.94915254237288</v>
       </c>
       <c r="D8" t="n">
-        <v>73.93939393939394</v>
+        <v>65.45454545454545</v>
       </c>
       <c r="E8" t="n">
-        <v>66.66666666666667</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>73.84615384615385</v>
+        <v>69.23076923076923</v>
       </c>
       <c r="G8" t="n">
-        <v>63.44827586206897</v>
+        <v>64.82758620689654</v>
       </c>
       <c r="H8" t="n">
         <v>67.77777777777777</v>
       </c>
       <c r="I8" t="n">
-        <v>64</v>
+        <v>70.15384615384616</v>
       </c>
       <c r="J8" t="n">
-        <v>59.53488372093023</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>128.448275862069</v>
+        <v>118.9655172413793</v>
       </c>
       <c r="L8" t="n">
-        <v>162.1621621621622</v>
+        <v>147.2972972972973</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>130.4964539007092</v>
       </c>
       <c r="N8" t="n">
-        <v>121.0344827586207</v>
+        <v>116.8965517241379</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>121.551724137931</v>
       </c>
       <c r="P8" t="n">
-        <v>128.7234042553191</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>168.4210526315789</v>
+        <v>175.4385964912281</v>
       </c>
       <c r="R8" t="n">
-        <v>115.8536585365854</v>
+        <v>104.8780487804878</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Goran Vesić</t>
+          <t>Nikola Lazić</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1031.19411389238</v>
+        <v>1144.697161037741</v>
       </c>
       <c r="C9" t="n">
-        <v>56.94915254237288</v>
+        <v>67.79661016949152</v>
       </c>
       <c r="D9" t="n">
-        <v>65.45454545454545</v>
+        <v>56.96969696969697</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="F9" t="n">
-        <v>69.23076923076923</v>
+        <v>66.15384615384615</v>
       </c>
       <c r="G9" t="n">
-        <v>64.82758620689654</v>
+        <v>60.68965517241379</v>
       </c>
       <c r="H9" t="n">
-        <v>67.77777777777777</v>
+        <v>60</v>
       </c>
       <c r="I9" t="n">
-        <v>70.15384615384616</v>
+        <v>66.46153846153847</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>51.16279069767442</v>
       </c>
       <c r="K9" t="n">
-        <v>118.9655172413793</v>
+        <v>111.2068965517241</v>
       </c>
       <c r="L9" t="n">
-        <v>147.2972972972973</v>
+        <v>155.4054054054054</v>
       </c>
       <c r="M9" t="n">
-        <v>130.4964539007092</v>
+        <v>148.9361702127659</v>
       </c>
       <c r="N9" t="n">
-        <v>116.8965517241379</v>
+        <v>125.1724137931034</v>
       </c>
       <c r="O9" t="n">
-        <v>121.551724137931</v>
+        <v>117.6724137931034</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>125.531914893617</v>
       </c>
       <c r="Q9" t="n">
-        <v>175.4385964912281</v>
+        <v>150.8771929824561</v>
       </c>
       <c r="R9" t="n">
-        <v>104.8780487804878</v>
+        <v>102.4390243902439</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Nikola Lazić</t>
+          <t>Borko Barić</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1027.024747244638</v>
+        <v>1116.012251254267</v>
       </c>
       <c r="C10" t="n">
-        <v>67.79661016949152</v>
+        <v>58.30508474576271</v>
       </c>
       <c r="D10" t="n">
-        <v>56.96969696969697</v>
+        <v>64.24242424242424</v>
       </c>
       <c r="E10" t="n">
-        <v>60</v>
+        <v>65.55555555555556</v>
       </c>
       <c r="F10" t="n">
-        <v>66.15384615384615</v>
+        <v>64.61538461538461</v>
       </c>
       <c r="G10" t="n">
-        <v>60.68965517241379</v>
+        <v>55.17241379310345</v>
       </c>
       <c r="H10" t="n">
-        <v>60</v>
+        <v>61.11111111111111</v>
       </c>
       <c r="I10" t="n">
-        <v>66.46153846153847</v>
+        <v>64</v>
       </c>
       <c r="J10" t="n">
-        <v>51.16279069767442</v>
+        <v>40</v>
       </c>
       <c r="K10" t="n">
-        <v>111.2068965517241</v>
+        <v>115.5172413793103</v>
       </c>
       <c r="L10" t="n">
-        <v>155.4054054054054</v>
+        <v>136.4864864864865</v>
       </c>
       <c r="M10" t="n">
         <v>148.9361702127659</v>
       </c>
       <c r="N10" t="n">
-        <v>125.1724137931034</v>
+        <v>113.7931034482759</v>
       </c>
       <c r="O10" t="n">
-        <v>117.6724137931034</v>
+        <v>104.7413793103448</v>
       </c>
       <c r="P10" t="n">
-        <v>125.531914893617</v>
+        <v>117.0212765957447</v>
       </c>
       <c r="Q10" t="n">
-        <v>150.8771929824561</v>
+        <v>160.233918128655</v>
       </c>
       <c r="R10" t="n">
-        <v>102.4390243902439</v>
+        <v>118.2926829268293</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Juraj Kveder</t>
+          <t>Haris Mujkić</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1010.211354046134</v>
+        <v>1068.587728595878</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>63.72881355932203</v>
       </c>
       <c r="D11" t="n">
-        <v>69.09090909090909</v>
+        <v>66.66666666666667</v>
       </c>
       <c r="E11" t="n">
-        <v>58.88888888888889</v>
+        <v>65.55555555555556</v>
       </c>
       <c r="F11" t="n">
-        <v>67.69230769230769</v>
+        <v>64.61538461538461</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>60.68965517241379</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>64.44444444444444</v>
       </c>
       <c r="I11" t="n">
-        <v>65.23076923076923</v>
+        <v>59.07692307692308</v>
       </c>
       <c r="J11" t="n">
-        <v>53.95348837209302</v>
+        <v>63.25581395348837</v>
       </c>
       <c r="K11" t="n">
-        <v>106.8965517241379</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>158.1081081081081</v>
+        <v>150</v>
       </c>
       <c r="M11" t="n">
-        <v>150.354609929078</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>106.551724137931</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>111.2068965517241</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>120.2127659574468</v>
       </c>
       <c r="Q11" t="n">
         <v>154.3859649122807</v>
       </c>
       <c r="R11" t="n">
-        <v>125.609756097561</v>
+        <v>101.219512195122</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Borko Barić</t>
+          <t>Neven Trgovec</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1000.495009874957</v>
+        <v>1056.985238695437</v>
       </c>
       <c r="C12" t="n">
-        <v>58.30508474576271</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>64.24242424242424</v>
+        <v>80</v>
       </c>
       <c r="E12" t="n">
-        <v>65.55555555555556</v>
+        <v>71.11111111111111</v>
       </c>
       <c r="F12" t="n">
-        <v>64.61538461538461</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>55.17241379310345</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>61.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>64</v>
+        <v>72.61538461538461</v>
       </c>
       <c r="J12" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>115.5172413793103</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>136.4864864864865</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>148.9361702127659</v>
+        <v>194.3262411347518</v>
       </c>
       <c r="N12" t="n">
-        <v>113.7931034482759</v>
+        <v>148.9655172413793</v>
       </c>
       <c r="O12" t="n">
-        <v>104.7413793103448</v>
+        <v>147.4137931034483</v>
       </c>
       <c r="P12" t="n">
-        <v>117.0212765957447</v>
+        <v>142.5531914893617</v>
       </c>
       <c r="Q12" t="n">
-        <v>160.233918128655</v>
+        <v>200</v>
       </c>
       <c r="R12" t="n">
-        <v>118.2926829268293</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Haris Mujkić</t>
+          <t>Bojan Hlača</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>967.368216400756</v>
+        <v>1040.448150541744</v>
       </c>
       <c r="C13" t="n">
-        <v>63.72881355932203</v>
+        <v>61.01694915254237</v>
       </c>
       <c r="D13" t="n">
-        <v>66.66666666666667</v>
+        <v>55.75757575757576</v>
       </c>
       <c r="E13" t="n">
-        <v>65.55555555555556</v>
+        <v>58.88888888888889</v>
       </c>
       <c r="F13" t="n">
-        <v>64.61538461538461</v>
+        <v>67.69230769230769</v>
       </c>
       <c r="G13" t="n">
-        <v>60.68965517241379</v>
+        <v>51.0344827586207</v>
       </c>
       <c r="H13" t="n">
-        <v>64.44444444444444</v>
+        <v>54.44444444444444</v>
       </c>
       <c r="I13" t="n">
-        <v>59.07692307692308</v>
+        <v>61.53846153846154</v>
       </c>
       <c r="J13" t="n">
-        <v>63.25581395348837</v>
+        <v>57.67441860465116</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>100.8620689655172</v>
       </c>
       <c r="L13" t="n">
-        <v>150</v>
+        <v>145.9459459459459</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>120.5673758865248</v>
       </c>
       <c r="N13" t="n">
-        <v>106.551724137931</v>
+        <v>107.5862068965517</v>
       </c>
       <c r="O13" t="n">
-        <v>111.2068965517241</v>
+        <v>96.98275862068965</v>
       </c>
       <c r="P13" t="n">
-        <v>120.2127659574468</v>
+        <v>108.5106382978723</v>
       </c>
       <c r="Q13" t="n">
-        <v>154.3859649122807</v>
+        <v>147.3684210526316</v>
       </c>
       <c r="R13" t="n">
-        <v>101.219512195122</v>
+        <v>103.6585365853659</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Ivica Brtan</t>
+          <t>Juraj Kveder</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>950.0538911034704</v>
+        <v>1010.211354046134</v>
       </c>
       <c r="C14" t="n">
-        <v>61.01694915254237</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>60.60606060606061</v>
+        <v>69.09090909090909</v>
       </c>
       <c r="E14" t="n">
-        <v>54.44444444444444</v>
+        <v>58.88888888888889</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>67.69230769230769</v>
       </c>
       <c r="G14" t="n">
-        <v>66.20689655172414</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>68.92307692307693</v>
+        <v>65.23076923076923</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>53.95348837209302</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>106.8965517241379</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>158.1081081081081</v>
       </c>
       <c r="M14" t="n">
-        <v>141.8439716312057</v>
+        <v>150.354609929078</v>
       </c>
       <c r="N14" t="n">
-        <v>116.8965517241379</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>107.3275862068966</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>114.8936170212766</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>157.8947368421053</v>
+        <v>154.3859649122807</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>125.609756097561</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Bojan Hlača</t>
+          <t>Krunoslav Valentić</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>936.789613956378</v>
+        <v>1006.147047974368</v>
       </c>
       <c r="C15" t="n">
-        <v>61.01694915254237</v>
+        <v>47.45762711864407</v>
       </c>
       <c r="D15" t="n">
-        <v>55.75757575757576</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>58.88888888888889</v>
+        <v>52.22222222222222</v>
       </c>
       <c r="F15" t="n">
-        <v>67.69230769230769</v>
+        <v>66.15384615384615</v>
       </c>
       <c r="G15" t="n">
-        <v>51.0344827586207</v>
+        <v>52.41379310344827</v>
       </c>
       <c r="H15" t="n">
-        <v>54.44444444444444</v>
+        <v>48.88888888888889</v>
       </c>
       <c r="I15" t="n">
-        <v>61.53846153846154</v>
+        <v>56.61538461538462</v>
       </c>
       <c r="J15" t="n">
-        <v>57.67441860465116</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>100.8620689655172</v>
+        <v>110.3448275862069</v>
       </c>
       <c r="L15" t="n">
-        <v>145.9459459459459</v>
+        <v>139.1891891891892</v>
       </c>
       <c r="M15" t="n">
-        <v>120.5673758865248</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>107.5862068965517</v>
+        <v>114.8275862068965</v>
       </c>
       <c r="O15" t="n">
-        <v>96.98275862068965</v>
+        <v>99.56896551724138</v>
       </c>
       <c r="P15" t="n">
-        <v>108.5106382978723</v>
+        <v>107.4468085106383</v>
       </c>
       <c r="Q15" t="n">
-        <v>147.3684210526316</v>
+        <v>154.3859649122807</v>
       </c>
       <c r="R15" t="n">
         <v>103.6585365853659</v>
@@ -1340,56 +1340,56 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Jurica Benčik</t>
+          <t>Pavao Crnko</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>926.040832612508</v>
+        <v>961.7825794722733</v>
       </c>
       <c r="C16" t="n">
-        <v>63.72881355932203</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>71.51515151515152</v>
+        <v>60.60606060606061</v>
       </c>
       <c r="E16" t="n">
-        <v>60</v>
+        <v>56.66666666666667</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>64.61538461538461</v>
       </c>
       <c r="G16" t="n">
-        <v>68.9655172413793</v>
+        <v>57.93103448275862</v>
       </c>
       <c r="H16" t="n">
-        <v>61.11111111111111</v>
+        <v>48.88888888888889</v>
       </c>
       <c r="I16" t="n">
-        <v>68.92307692307693</v>
+        <v>44.30769230769231</v>
       </c>
       <c r="J16" t="n">
-        <v>56.74418604651163</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>106.8965517241379</v>
       </c>
       <c r="L16" t="n">
-        <v>150</v>
+        <v>124.3243243243243</v>
       </c>
       <c r="M16" t="n">
-        <v>137.5886524822695</v>
+        <v>97.87234042553192</v>
       </c>
       <c r="N16" t="n">
-        <v>133.448275862069</v>
+        <v>104.4827586206897</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>96.80851063829788</v>
       </c>
       <c r="Q16" t="n">
-        <v>170.7602339181286</v>
+        <v>142.6900584795322</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -1398,93 +1398,93 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Domagoj Marić</t>
+          <t>Dalibor Benković</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>922.287473890719</v>
+        <v>955.721703246217</v>
       </c>
       <c r="C17" t="n">
         <v>58.30508474576271</v>
       </c>
       <c r="D17" t="n">
-        <v>58.18181818181819</v>
+        <v>53.33333333333333</v>
       </c>
       <c r="E17" t="n">
         <v>57.77777777777778</v>
       </c>
       <c r="F17" t="n">
-        <v>61.53846153846154</v>
+        <v>50.76923076923077</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>55.17241379310345</v>
       </c>
       <c r="H17" t="n">
-        <v>50</v>
+        <v>53.33333333333333</v>
       </c>
       <c r="I17" t="n">
-        <v>61.53846153846154</v>
+        <v>57.84615384615385</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>48.37209302325581</v>
       </c>
       <c r="K17" t="n">
-        <v>109.4827586206897</v>
+        <v>103.448275862069</v>
       </c>
       <c r="L17" t="n">
-        <v>128.3783783783784</v>
+        <v>131.0810810810811</v>
       </c>
       <c r="M17" t="n">
-        <v>120.5673758865248</v>
+        <v>119.1489361702128</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>112.7586206896552</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>93.10344827586208</v>
       </c>
       <c r="P17" t="n">
-        <v>119.1489361702128</v>
+        <v>103.1914893617021</v>
       </c>
       <c r="Q17" t="n">
-        <v>147.3684210526316</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>103.6585365853659</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Krešimir Sučević-Međeral</t>
+          <t>Ivica Brtan</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>913.2695705800636</v>
+        <v>950.0538911034704</v>
       </c>
       <c r="C18" t="n">
-        <v>65.08474576271186</v>
+        <v>61.01694915254237</v>
       </c>
       <c r="D18" t="n">
-        <v>76.36363636363637</v>
+        <v>60.60606060606061</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>54.44444444444444</v>
       </c>
       <c r="F18" t="n">
-        <v>70.76923076923077</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>62.06896551724138</v>
+        <v>66.20689655172414</v>
       </c>
       <c r="H18" t="n">
-        <v>63.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>70.15384615384616</v>
+        <v>68.92307692307693</v>
       </c>
       <c r="J18" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1493,135 +1493,135 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>163.1205673758865</v>
+        <v>141.8439716312057</v>
       </c>
       <c r="N18" t="n">
-        <v>135.5172413793103</v>
+        <v>116.8965517241379</v>
       </c>
       <c r="O18" t="n">
-        <v>125.4310344827586</v>
+        <v>107.3275862068966</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>114.8936170212766</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>157.8947368421053</v>
       </c>
       <c r="R18" t="n">
-        <v>126.8292682926829</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Krunoslav Valentić</t>
+          <t>Petar Kordić</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>902.4885113890018</v>
+        <v>949.861818330033</v>
       </c>
       <c r="C19" t="n">
         <v>47.45762711864407</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>35.15151515151515</v>
       </c>
       <c r="E19" t="n">
-        <v>52.22222222222222</v>
+        <v>61.11111111111111</v>
       </c>
       <c r="F19" t="n">
-        <v>66.15384615384615</v>
+        <v>50.76923076923077</v>
       </c>
       <c r="G19" t="n">
-        <v>52.41379310344827</v>
+        <v>62.06896551724138</v>
       </c>
       <c r="H19" t="n">
-        <v>48.88888888888889</v>
+        <v>47.77777777777778</v>
       </c>
       <c r="I19" t="n">
-        <v>56.61538461538462</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>47.44186046511629</v>
       </c>
       <c r="K19" t="n">
-        <v>110.3448275862069</v>
+        <v>86.20689655172413</v>
       </c>
       <c r="L19" t="n">
-        <v>139.1891891891892</v>
+        <v>113.5135135135135</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>117.7304964539007</v>
       </c>
       <c r="N19" t="n">
-        <v>114.8275862068965</v>
+        <v>100.3448275862069</v>
       </c>
       <c r="O19" t="n">
-        <v>99.56896551724138</v>
+        <v>93.10344827586208</v>
       </c>
       <c r="P19" t="n">
         <v>107.4468085106383</v>
       </c>
       <c r="Q19" t="n">
-        <v>154.3859649122807</v>
+        <v>148.5380116959064</v>
       </c>
       <c r="R19" t="n">
-        <v>103.6585365853659</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Pavao Crnko</t>
+          <t>Jurica Benčik</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>864.9740688339754</v>
+        <v>926.040832612508</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>63.72881355932203</v>
       </c>
       <c r="D20" t="n">
-        <v>60.60606060606061</v>
+        <v>71.51515151515152</v>
       </c>
       <c r="E20" t="n">
-        <v>56.66666666666667</v>
+        <v>60</v>
       </c>
       <c r="F20" t="n">
-        <v>64.61538461538461</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>57.93103448275862</v>
+        <v>68.9655172413793</v>
       </c>
       <c r="H20" t="n">
-        <v>48.88888888888889</v>
+        <v>61.11111111111111</v>
       </c>
       <c r="I20" t="n">
-        <v>44.30769230769231</v>
+        <v>68.92307692307693</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>56.74418604651163</v>
       </c>
       <c r="K20" t="n">
-        <v>106.8965517241379</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>124.3243243243243</v>
+        <v>150</v>
       </c>
       <c r="M20" t="n">
-        <v>97.87234042553192</v>
+        <v>137.5886524822695</v>
       </c>
       <c r="N20" t="n">
-        <v>104.4827586206897</v>
+        <v>133.448275862069</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>96.80851063829788</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>142.6900584795322</v>
+        <v>170.7602339181286</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -1630,56 +1630,56 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Petar Kordić</t>
+          <t>Domagoj Marić</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>856.7583700541709</v>
+        <v>922.287473890719</v>
       </c>
       <c r="C21" t="n">
-        <v>47.45762711864407</v>
+        <v>58.30508474576271</v>
       </c>
       <c r="D21" t="n">
-        <v>35.15151515151515</v>
+        <v>58.18181818181819</v>
       </c>
       <c r="E21" t="n">
-        <v>61.11111111111111</v>
+        <v>57.77777777777778</v>
       </c>
       <c r="F21" t="n">
-        <v>50.76923076923077</v>
+        <v>61.53846153846154</v>
       </c>
       <c r="G21" t="n">
-        <v>62.06896551724138</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>47.77777777777778</v>
+        <v>50</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>61.53846153846154</v>
       </c>
       <c r="J21" t="n">
-        <v>47.44186046511629</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>86.20689655172413</v>
+        <v>109.4827586206897</v>
       </c>
       <c r="L21" t="n">
-        <v>113.5135135135135</v>
+        <v>128.3783783783784</v>
       </c>
       <c r="M21" t="n">
-        <v>117.7304964539007</v>
+        <v>120.5673758865248</v>
       </c>
       <c r="N21" t="n">
-        <v>100.3448275862069</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>93.10344827586208</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>107.4468085106383</v>
+        <v>119.1489361702128</v>
       </c>
       <c r="Q21" t="n">
-        <v>148.5380116959064</v>
+        <v>147.3684210526316</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -1688,404 +1688,404 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Šime Gverić</t>
+          <t>Krešimir Sučević-Međeral</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>855.1821465632911</v>
+        <v>913.2695705800636</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>65.08474576271186</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>76.36363636363637</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>70.76923076923077</v>
       </c>
       <c r="G22" t="n">
+        <v>62.06896551724138</v>
+      </c>
+      <c r="H22" t="n">
+        <v>63.33333333333333</v>
+      </c>
+      <c r="I22" t="n">
+        <v>70.15384615384616</v>
+      </c>
+      <c r="J22" t="n">
         <v>80</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
       <c r="K22" t="n">
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>194.5945945945946</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>171.6312056737589</v>
+        <v>163.1205673758865</v>
       </c>
       <c r="N22" t="n">
-        <v>136.551724137931</v>
+        <v>135.5172413793103</v>
       </c>
       <c r="O22" t="n">
-        <v>138.3620689655172</v>
+        <v>125.4310344827586</v>
       </c>
       <c r="P22" t="n">
-        <v>134.0425531914894</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>126.8292682926829</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Dalibor Benković</t>
+          <t>Josip Paškov</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>852.530213884515</v>
+        <v>911.1157383287866</v>
       </c>
       <c r="C23" t="n">
-        <v>58.30508474576271</v>
+        <v>50.16949152542373</v>
       </c>
       <c r="D23" t="n">
-        <v>53.33333333333333</v>
+        <v>55.75757575757576</v>
       </c>
       <c r="E23" t="n">
-        <v>57.77777777777778</v>
+        <v>54.44444444444444</v>
       </c>
       <c r="F23" t="n">
-        <v>50.76923076923077</v>
+        <v>53.84615384615385</v>
       </c>
       <c r="G23" t="n">
-        <v>55.17241379310345</v>
+        <v>49.6551724137931</v>
       </c>
       <c r="H23" t="n">
-        <v>53.33333333333333</v>
+        <v>51.11111111111111</v>
       </c>
       <c r="I23" t="n">
-        <v>57.84615384615385</v>
+        <v>49.23076923076923</v>
       </c>
       <c r="J23" t="n">
-        <v>48.37209302325581</v>
+        <v>58.6046511627907</v>
       </c>
       <c r="K23" t="n">
-        <v>103.448275862069</v>
+        <v>95.68965517241381</v>
       </c>
       <c r="L23" t="n">
-        <v>131.0810810810811</v>
+        <v>137.8378378378378</v>
       </c>
       <c r="M23" t="n">
-        <v>119.1489361702128</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>112.7586206896552</v>
+        <v>105.5172413793103</v>
       </c>
       <c r="O23" t="n">
-        <v>93.10344827586208</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>103.1914893617021</v>
+        <v>85.10638297872342</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>119.2982456140351</v>
       </c>
       <c r="R23" t="n">
-        <v>103.6585365853659</v>
+        <v>93.90243902439023</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Ivan Jurić</t>
+          <t>Ivica Glavan</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>851.8478721908787</v>
+        <v>906.2140692629262</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>55.59322033898305</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>52.12121212121212</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>51.11111111111111</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>49.23076923076923</v>
       </c>
       <c r="G24" t="n">
-        <v>73.10344827586208</v>
+        <v>46.89655172413793</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>52.22222222222222</v>
       </c>
       <c r="I24" t="n">
-        <v>80</v>
+        <v>49.23076923076923</v>
       </c>
       <c r="J24" t="n">
-        <v>61.3953488372093</v>
+        <v>57.67441860465116</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>108.1081081081081</v>
       </c>
       <c r="M24" t="n">
-        <v>174.468085106383</v>
+        <v>104.9645390070922</v>
       </c>
       <c r="N24" t="n">
-        <v>134.4827586206897</v>
+        <v>107.5862068965517</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>90.51724137931035</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q24" t="n">
-        <v>191.812865497076</v>
+        <v>126.3157894736842</v>
       </c>
       <c r="R24" t="n">
-        <v>136.5853658536585</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Dražen Nemet</t>
+          <t>Krešimir Melnik</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>839.8390612429296</v>
+        <v>877.6362515280879</v>
       </c>
       <c r="C25" t="n">
-        <v>66.4406779661017</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>72.72727272727272</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>66.66666666666667</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>66.20689655172414</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.77777777777778</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>71.38461538461539</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>66.04651162790698</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>115.5172413793103</v>
+        <v>131.8965517241379</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>166.2162162162162</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>157.4468085106383</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>112.7586206896552</v>
       </c>
       <c r="O25" t="n">
-        <v>129.3103448275862</v>
+        <v>128.0172413793103</v>
       </c>
       <c r="P25" t="n">
-        <v>126.5957446808511</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>125.609756097561</v>
+        <v>114.6341463414634</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Tomislav Bartolović</t>
+          <t>Ivan Marić</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>827.1865783487959</v>
+        <v>874.0808948357269</v>
       </c>
       <c r="C26" t="n">
-        <v>73.22033898305085</v>
+        <v>48.8135593220339</v>
       </c>
       <c r="D26" t="n">
-        <v>66.66666666666667</v>
+        <v>56.96969696969697</v>
       </c>
       <c r="E26" t="n">
-        <v>63.33333333333333</v>
+        <v>50</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>52.30769230769231</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>37.24137931034483</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>47.77777777777778</v>
       </c>
       <c r="I26" t="n">
-        <v>68.92307692307693</v>
+        <v>52.92307692307692</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>51.16279069767442</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>92.24137931034483</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>102.7027027027027</v>
       </c>
       <c r="M26" t="n">
-        <v>144.6808510638298</v>
+        <v>102.1276595744681</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>102.4137931034483</v>
       </c>
       <c r="O26" t="n">
-        <v>126.7241379310345</v>
+        <v>93.10344827586208</v>
       </c>
       <c r="P26" t="n">
-        <v>123.4042553191489</v>
+        <v>91.48936170212765</v>
       </c>
       <c r="Q26" t="n">
-        <v>160.233918128655</v>
+        <v>118.1286549707602</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>81.70731707317073</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Josip Paškov</t>
+          <t>Mario Ferenčak</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>826.0093553500631</v>
+        <v>867.7372987358536</v>
       </c>
       <c r="C27" t="n">
         <v>50.16949152542373</v>
       </c>
       <c r="D27" t="n">
-        <v>55.75757575757576</v>
+        <v>47.27272727272727</v>
       </c>
       <c r="E27" t="n">
-        <v>54.44444444444444</v>
+        <v>38.88888888888889</v>
       </c>
       <c r="F27" t="n">
-        <v>53.84615384615385</v>
+        <v>50.76923076923077</v>
       </c>
       <c r="G27" t="n">
-        <v>49.6551724137931</v>
+        <v>46.89655172413793</v>
       </c>
       <c r="H27" t="n">
-        <v>51.11111111111111</v>
+        <v>41.11111111111111</v>
       </c>
       <c r="I27" t="n">
-        <v>49.23076923076923</v>
+        <v>39.38461538461539</v>
       </c>
       <c r="J27" t="n">
-        <v>58.6046511627907</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>95.68965517241381</v>
+        <v>89.65517241379311</v>
       </c>
       <c r="L27" t="n">
-        <v>137.8378378378378</v>
+        <v>124.3243243243243</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>112.0567375886525</v>
       </c>
       <c r="N27" t="n">
-        <v>105.5172413793103</v>
+        <v>90</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>90.51724137931035</v>
       </c>
       <c r="P27" t="n">
-        <v>85.10638297872342</v>
+        <v>76.59574468085106</v>
       </c>
       <c r="Q27" t="n">
-        <v>119.2982456140351</v>
+        <v>114.6198830409357</v>
       </c>
       <c r="R27" t="n">
-        <v>93.90243902439023</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Ivica Glavan</t>
+          <t>Šime Gverić</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>815.6968278836159</v>
+        <v>855.1821465632911</v>
       </c>
       <c r="C28" t="n">
-        <v>55.59322033898305</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>52.12121212121212</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>51.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>49.23076923076923</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>46.89655172413793</v>
+        <v>80</v>
       </c>
       <c r="H28" t="n">
-        <v>52.22222222222222</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>49.23076923076923</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>57.67441860465116</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>108.1081081081081</v>
+        <v>194.5945945945946</v>
       </c>
       <c r="M28" t="n">
-        <v>104.9645390070922</v>
+        <v>171.6312056737589</v>
       </c>
       <c r="N28" t="n">
-        <v>107.5862068965517</v>
+        <v>136.551724137931</v>
       </c>
       <c r="O28" t="n">
-        <v>90.51724137931035</v>
+        <v>138.3620689655172</v>
       </c>
       <c r="P28" t="n">
-        <v>100</v>
+        <v>134.0425531914894</v>
       </c>
       <c r="Q28" t="n">
-        <v>126.3157894736842</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -2094,11 +2094,11 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Fabijan Bošnjak</t>
+          <t>Ivan Jurić</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>804.1870398799773</v>
+        <v>851.8478721908787</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2107,217 +2107,217 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>60.68965517241379</v>
+        <v>73.10344827586208</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>61.3953488372093</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>144.5945945945946</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>136.1702127659574</v>
+        <v>174.468085106383</v>
       </c>
       <c r="N29" t="n">
-        <v>117.9310344827586</v>
+        <v>134.4827586206897</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>111.7021276595745</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>173.0994152046784</v>
+        <v>191.812865497076</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>136.5853658536585</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Ivan Marić</t>
+          <t>Dražen Nemet</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>781.839515525382</v>
+        <v>839.8390612429296</v>
       </c>
       <c r="C30" t="n">
-        <v>48.8135593220339</v>
+        <v>66.4406779661017</v>
       </c>
       <c r="D30" t="n">
-        <v>56.96969696969697</v>
+        <v>72.72727272727272</v>
       </c>
       <c r="E30" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>52.30769230769231</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>37.24137931034483</v>
+        <v>66.20689655172414</v>
       </c>
       <c r="H30" t="n">
-        <v>47.77777777777778</v>
+        <v>57.77777777777778</v>
       </c>
       <c r="I30" t="n">
-        <v>52.92307692307692</v>
+        <v>71.38461538461539</v>
       </c>
       <c r="J30" t="n">
-        <v>51.16279069767442</v>
+        <v>66.04651162790698</v>
       </c>
       <c r="K30" t="n">
-        <v>92.24137931034483</v>
+        <v>115.5172413793103</v>
       </c>
       <c r="L30" t="n">
-        <v>102.7027027027027</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>102.1276595744681</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>102.4137931034483</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>93.10344827586208</v>
+        <v>129.3103448275862</v>
       </c>
       <c r="P30" t="n">
-        <v>91.48936170212765</v>
+        <v>126.5957446808511</v>
       </c>
       <c r="Q30" t="n">
-        <v>118.1286549707602</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>81.70731707317073</v>
+        <v>125.609756097561</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Mario Ferenčak</t>
+          <t>Tomislav Bartolović</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>777.7372987358536</v>
+        <v>827.1865783487959</v>
       </c>
       <c r="C31" t="n">
-        <v>50.16949152542373</v>
+        <v>73.22033898305085</v>
       </c>
       <c r="D31" t="n">
-        <v>47.27272727272727</v>
+        <v>66.66666666666667</v>
       </c>
       <c r="E31" t="n">
-        <v>38.88888888888889</v>
+        <v>63.33333333333333</v>
       </c>
       <c r="F31" t="n">
-        <v>50.76923076923077</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>46.89655172413793</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>41.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>39.38461538461539</v>
+        <v>68.92307692307693</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>89.65517241379311</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>124.3243243243243</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>112.0567375886525</v>
+        <v>144.6808510638298</v>
       </c>
       <c r="N31" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>90.51724137931035</v>
+        <v>126.7241379310345</v>
       </c>
       <c r="P31" t="n">
-        <v>76.59574468085106</v>
+        <v>123.4042553191489</v>
       </c>
       <c r="Q31" t="n">
-        <v>114.6198830409357</v>
+        <v>160.233918128655</v>
       </c>
       <c r="R31" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Marinko Čogelja</t>
+          <t>Luka Čmrlec</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>770.9706402760662</v>
+        <v>825.3036541132553</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>46.10169491525424</v>
       </c>
       <c r="D32" t="n">
-        <v>65.45454545454545</v>
+        <v>46.06060606060606</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>53.33333333333333</v>
       </c>
       <c r="F32" t="n">
-        <v>66.15384615384615</v>
+        <v>58.46153846153846</v>
       </c>
       <c r="G32" t="n">
         <v>53.79310344827586</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>45.55555555555556</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>45.53846153846153</v>
       </c>
       <c r="J32" t="n">
-        <v>68.83720930232558</v>
+        <v>33.48837209302326</v>
       </c>
       <c r="K32" t="n">
-        <v>123.2758620689655</v>
+        <v>86.20689655172413</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>94.5945945945946</v>
       </c>
       <c r="M32" t="n">
-        <v>139.0070921985816</v>
+        <v>103.5460992907801</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>88.9655172413793</v>
       </c>
       <c r="O32" t="n">
-        <v>104.7413793103448</v>
+        <v>86.63793103448276</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>86.17021276595746</v>
       </c>
       <c r="Q32" t="n">
-        <v>149.7076023391813</v>
+        <v>107.6023391812865</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -2326,11 +2326,11 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Krešimir Melnik</t>
+          <t>Fabijan Bošnjak</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>764.8776308384328</v>
+        <v>804.1870398799773</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -2339,13 +2339,13 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>66.66666666666667</v>
+        <v>60</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>60.68965517241379</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2357,83 +2357,83 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>131.8965517241379</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>166.2162162162162</v>
+        <v>144.5945945945946</v>
       </c>
       <c r="M33" t="n">
-        <v>157.4468085106383</v>
+        <v>136.1702127659574</v>
       </c>
       <c r="N33" t="n">
-        <v>112.7586206896552</v>
+        <v>117.9310344827586</v>
       </c>
       <c r="O33" t="n">
-        <v>128.0172413793103</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>111.7021276595745</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>173.0994152046784</v>
       </c>
       <c r="R33" t="n">
-        <v>114.6341463414634</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Luka Čmrlec</t>
+          <t>Marinko Čogelja</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>739.0967575615314</v>
+        <v>770.9706402760662</v>
       </c>
       <c r="C34" t="n">
-        <v>46.10169491525424</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>46.06060606060606</v>
+        <v>65.45454545454545</v>
       </c>
       <c r="E34" t="n">
-        <v>53.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>58.46153846153846</v>
+        <v>66.15384615384615</v>
       </c>
       <c r="G34" t="n">
         <v>53.79310344827586</v>
       </c>
       <c r="H34" t="n">
-        <v>45.55555555555556</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>45.53846153846153</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>33.48837209302326</v>
+        <v>68.83720930232558</v>
       </c>
       <c r="K34" t="n">
-        <v>86.20689655172413</v>
+        <v>123.2758620689655</v>
       </c>
       <c r="L34" t="n">
-        <v>94.5945945945946</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>103.5460992907801</v>
+        <v>139.0070921985816</v>
       </c>
       <c r="N34" t="n">
-        <v>88.9655172413793</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>86.63793103448276</v>
+        <v>104.7413793103448</v>
       </c>
       <c r="P34" t="n">
-        <v>86.17021276595746</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>107.6023391812865</v>
+        <v>149.7076023391813</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -2442,56 +2442,56 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Kristo Kristić</t>
+          <t>Saša Benzon</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>732.732260365211</v>
+        <v>757.3456853331868</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>70.3030303030303</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>67.69230769230769</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>52.41379310344827</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>67.69230769230769</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>69.76744186046511</v>
+        <v>56.74418604651163</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>124.3243243243243</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>114.8936170212766</v>
       </c>
       <c r="N35" t="n">
-        <v>115.8620689655172</v>
+        <v>118.9655172413793</v>
       </c>
       <c r="O35" t="n">
-        <v>117.6724137931034</v>
+        <v>103.448275862069</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>102.1276595744681</v>
       </c>
       <c r="Q35" t="n">
-        <v>163.7426900584795</v>
+        <v>136.8421052631579</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -2500,154 +2500,154 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Dražen Cukina</t>
+          <t>Bruno Vojvodić</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>726.2876129608131</v>
+        <v>752.4695335675711</v>
       </c>
       <c r="C36" t="n">
-        <v>58.30508474576271</v>
+        <v>37.96610169491525</v>
       </c>
       <c r="D36" t="n">
-        <v>52.12121212121212</v>
+        <v>47.27272727272727</v>
       </c>
       <c r="E36" t="n">
-        <v>38.88888888888889</v>
+        <v>41.11111111111111</v>
       </c>
       <c r="F36" t="n">
-        <v>49.23076923076923</v>
+        <v>52.30769230769231</v>
       </c>
       <c r="G36" t="n">
-        <v>42.75862068965517</v>
+        <v>38.62068965517241</v>
       </c>
       <c r="H36" t="n">
-        <v>42.22222222222222</v>
+        <v>40</v>
       </c>
       <c r="I36" t="n">
-        <v>49.23076923076923</v>
+        <v>50.46153846153846</v>
       </c>
       <c r="J36" t="n">
-        <v>43.72093023255814</v>
+        <v>31.62790697674419</v>
       </c>
       <c r="K36" t="n">
-        <v>78.44827586206897</v>
+        <v>68.10344827586206</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>93.24324324324324</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>87.93103448275862</v>
+        <v>91.03448275862068</v>
       </c>
       <c r="O36" t="n">
-        <v>85.3448275862069</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>96.80851063829788</v>
+        <v>81.91489361702128</v>
       </c>
       <c r="Q36" t="n">
-        <v>125.1461988304094</v>
+        <v>104.093567251462</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>82.92682926829268</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Tomislav Grubišić</t>
+          <t>Tomislav Nedić</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>723.932207806572</v>
+        <v>738.8781139122775</v>
       </c>
       <c r="C37" t="n">
-        <v>54.23728813559322</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>53.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>55.55555555555556</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>52.30769230769231</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>59.31034482758621</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>48.88888888888889</v>
+        <v>56.66666666666667</v>
       </c>
       <c r="I37" t="n">
-        <v>48</v>
+        <v>44.30769230769231</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>30.69767441860465</v>
       </c>
       <c r="K37" t="n">
-        <v>94.82758620689656</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>124.3243243243243</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>99.29078014184397</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>101.3793103448276</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>90.51724137931035</v>
       </c>
       <c r="P37" t="n">
-        <v>97.87234042553192</v>
+        <v>94.68085106382979</v>
       </c>
       <c r="Q37" t="n">
-        <v>132.1637426900585</v>
+        <v>128.6549707602339</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>92.6829268292683</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Branimir Ivković</t>
+          <t>Kristo Kristić</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>722.1542112531563</v>
+        <v>732.732260365211</v>
       </c>
       <c r="C38" t="n">
-        <v>55.59322033898305</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>52.12121212121212</v>
+        <v>70.3030303030303</v>
       </c>
       <c r="E38" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F38" t="n">
-        <v>50.76923076923077</v>
+        <v>67.69230769230769</v>
       </c>
       <c r="G38" t="n">
-        <v>41.37931034482759</v>
+        <v>52.41379310344827</v>
       </c>
       <c r="H38" t="n">
-        <v>44.44444444444444</v>
+        <v>60</v>
       </c>
       <c r="I38" t="n">
-        <v>45.53846153846153</v>
+        <v>67.69230769230769</v>
       </c>
       <c r="J38" t="n">
-        <v>61.3953488372093</v>
+        <v>69.76744186046511</v>
       </c>
       <c r="K38" t="n">
-        <v>85.3448275862069</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -2656,16 +2656,16 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>82.75862068965517</v>
+        <v>115.8620689655172</v>
       </c>
       <c r="O38" t="n">
-        <v>81.46551724137932</v>
+        <v>117.6724137931034</v>
       </c>
       <c r="P38" t="n">
-        <v>90.42553191489361</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>112.280701754386</v>
+        <v>163.7426900584795</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -2674,56 +2674,56 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Siniša Žegor</t>
+          <t>Dražen Cukina</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>691.5400558026536</v>
+        <v>726.2876129608131</v>
       </c>
       <c r="C39" t="n">
-        <v>52.88135593220339</v>
+        <v>58.30508474576271</v>
       </c>
       <c r="D39" t="n">
-        <v>59.39393939393939</v>
+        <v>52.12121212121212</v>
       </c>
       <c r="E39" t="n">
-        <v>47.77777777777778</v>
+        <v>38.88888888888889</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>49.23076923076923</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>42.75862068965517</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>42.22222222222222</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>49.23076923076923</v>
       </c>
       <c r="J39" t="n">
-        <v>53.02325581395348</v>
+        <v>43.72093023255814</v>
       </c>
       <c r="K39" t="n">
-        <v>105.1724137931035</v>
+        <v>78.44827586206897</v>
       </c>
       <c r="L39" t="n">
-        <v>121.6216216216216</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>114.8275862068965</v>
+        <v>87.93103448275862</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>85.3448275862069</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>96.80851063829788</v>
       </c>
       <c r="Q39" t="n">
-        <v>136.8421052631579</v>
+        <v>125.1461988304094</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -2732,114 +2732,114 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Bruno Vojvodić</t>
+          <t>Tomislav Grubišić</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>684.3660852917091</v>
+        <v>723.932207806572</v>
       </c>
       <c r="C40" t="n">
-        <v>37.96610169491525</v>
+        <v>54.23728813559322</v>
       </c>
       <c r="D40" t="n">
-        <v>47.27272727272727</v>
+        <v>53.33333333333333</v>
       </c>
       <c r="E40" t="n">
-        <v>41.11111111111111</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="F40" t="n">
         <v>52.30769230769231</v>
       </c>
       <c r="G40" t="n">
-        <v>38.62068965517241</v>
+        <v>59.31034482758621</v>
       </c>
       <c r="H40" t="n">
-        <v>40</v>
+        <v>48.88888888888889</v>
       </c>
       <c r="I40" t="n">
-        <v>50.46153846153846</v>
+        <v>48</v>
       </c>
       <c r="J40" t="n">
-        <v>31.62790697674419</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>68.10344827586206</v>
+        <v>94.82758620689656</v>
       </c>
       <c r="L40" t="n">
-        <v>93.24324324324324</v>
+        <v>124.3243243243243</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>91.03448275862068</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>81.91489361702128</v>
+        <v>97.87234042553192</v>
       </c>
       <c r="Q40" t="n">
-        <v>104.093567251462</v>
+        <v>132.1637426900585</v>
       </c>
       <c r="R40" t="n">
-        <v>82.92682926829268</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Saša Benzon</t>
+          <t>Branimir Ivković</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>655.2180257587188</v>
+        <v>722.1542112531563</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>55.59322033898305</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>52.12121212121212</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>50.76923076923077</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>41.37931034482759</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>44.44444444444444</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>45.53846153846153</v>
       </c>
       <c r="J41" t="n">
-        <v>56.74418604651163</v>
+        <v>61.3953488372093</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>85.3448275862069</v>
       </c>
       <c r="L41" t="n">
-        <v>124.3243243243243</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>114.8936170212766</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>118.9655172413793</v>
+        <v>82.75862068965517</v>
       </c>
       <c r="O41" t="n">
-        <v>103.448275862069</v>
+        <v>81.46551724137932</v>
       </c>
       <c r="P41" t="n">
-        <v>102.1276595744681</v>
+        <v>90.42553191489361</v>
       </c>
       <c r="Q41" t="n">
-        <v>136.8421052631579</v>
+        <v>112.280701754386</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -2848,20 +2848,20 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Tomislav Nedić</t>
+          <t>Siniša Žegor</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>648.3608725329672</v>
+        <v>691.5400558026536</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>52.88135593220339</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>59.39393939393939</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>47.77777777777778</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -2870,37 +2870,37 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>56.66666666666667</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>44.30769230769231</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>30.69767441860465</v>
+        <v>53.02325581395348</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>105.1724137931035</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>121.6216216216216</v>
       </c>
       <c r="M42" t="n">
-        <v>99.29078014184397</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>101.3793103448276</v>
+        <v>114.8275862068965</v>
       </c>
       <c r="O42" t="n">
-        <v>90.51724137931035</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>94.68085106382979</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>128.6549707602339</v>
+        <v>136.8421052631579</v>
       </c>
       <c r="R42" t="n">
-        <v>92.6829268292683</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -2964,56 +2964,56 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Leo Kovač</t>
+          <t>Vanja Galović</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>642.5351517663571</v>
+        <v>643.5468628674419</v>
       </c>
       <c r="C44" t="n">
-        <v>43.38983050847457</v>
+        <v>31.1864406779661</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>49.6969696969697</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F44" t="n">
-        <v>49.23076923076923</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>27.58620689655173</v>
       </c>
       <c r="H44" t="n">
-        <v>51.11111111111111</v>
+        <v>37.77777777777778</v>
       </c>
       <c r="I44" t="n">
-        <v>54.15384615384616</v>
+        <v>40.61538461538461</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>58.62068965517242</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>82.43243243243244</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>80.85106382978722</v>
       </c>
       <c r="N44" t="n">
-        <v>107.5862068965517</v>
+        <v>91.03448275862068</v>
       </c>
       <c r="O44" t="n">
-        <v>100.8620689655172</v>
+        <v>54.31034482758621</v>
       </c>
       <c r="P44" t="n">
-        <v>94.68085106382979</v>
+        <v>67.02127659574468</v>
       </c>
       <c r="Q44" t="n">
-        <v>141.5204678362573</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -3022,32 +3022,32 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Maja Bulatović</t>
+          <t>Leo Kovač</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>640.7100782931607</v>
+        <v>642.5351517663571</v>
       </c>
       <c r="C45" t="n">
-        <v>37.96610169491525</v>
+        <v>43.38983050847457</v>
       </c>
       <c r="D45" t="n">
-        <v>49.6969696969697</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>48.88888888888889</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>38.46153846153846</v>
+        <v>49.23076923076923</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>51.11111111111111</v>
       </c>
       <c r="I45" t="n">
-        <v>41.84615384615385</v>
+        <v>54.15384615384616</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -3056,22 +3056,22 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>77.02702702702703</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>79.6551724137931</v>
+        <v>107.5862068965517</v>
       </c>
       <c r="O45" t="n">
-        <v>82.75862068965517</v>
+        <v>100.8620689655172</v>
       </c>
       <c r="P45" t="n">
-        <v>74.46808510638297</v>
+        <v>94.68085106382979</v>
       </c>
       <c r="Q45" t="n">
-        <v>109.9415204678363</v>
+        <v>141.5204678362573</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -3080,32 +3080,32 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Barislav Poparić</t>
+          <t>Maja Bulatović</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>636.1172261344275</v>
+        <v>640.7100782931607</v>
       </c>
       <c r="C46" t="n">
-        <v>48.8135593220339</v>
+        <v>37.96610169491525</v>
       </c>
       <c r="D46" t="n">
-        <v>54.54545454545454</v>
+        <v>49.6969696969697</v>
       </c>
       <c r="E46" t="n">
-        <v>45.55555555555556</v>
+        <v>48.88888888888889</v>
       </c>
       <c r="F46" t="n">
-        <v>56.92307692307693</v>
+        <v>38.46153846153846</v>
       </c>
       <c r="G46" t="n">
-        <v>37.24137931034483</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>46.66666666666667</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>41.84615384615385</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -3114,22 +3114,22 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>77.02702702702703</v>
       </c>
       <c r="M46" t="n">
-        <v>102.1276595744681</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>79.6551724137931</v>
       </c>
       <c r="O46" t="n">
-        <v>71.12068965517241</v>
+        <v>82.75862068965517</v>
       </c>
       <c r="P46" t="n">
-        <v>95.74468085106383</v>
+        <v>74.46808510638297</v>
       </c>
       <c r="Q46" t="n">
-        <v>114.6198830409357</v>
+        <v>109.9415204678363</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -3138,29 +3138,29 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Petar Prugovečki</t>
+          <t>Barislav Poparić</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>632.8560250711039</v>
+        <v>636.1172261344275</v>
       </c>
       <c r="C47" t="n">
-        <v>66.4406779661017</v>
+        <v>48.8135593220339</v>
       </c>
       <c r="D47" t="n">
-        <v>65.45454545454545</v>
+        <v>54.54545454545454</v>
       </c>
       <c r="E47" t="n">
-        <v>52.22222222222222</v>
+        <v>45.55555555555556</v>
       </c>
       <c r="F47" t="n">
-        <v>70.76923076923077</v>
+        <v>56.92307692307693</v>
       </c>
       <c r="G47" t="n">
-        <v>0</v>
+        <v>37.24137931034483</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>46.66666666666667</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -3169,25 +3169,25 @@
         <v>0</v>
       </c>
       <c r="K47" t="n">
-        <v>113.7931034482759</v>
+        <v>0</v>
       </c>
       <c r="L47" t="n">
         <v>0</v>
       </c>
       <c r="M47" t="n">
-        <v>0</v>
+        <v>102.1276595744681</v>
       </c>
       <c r="N47" t="n">
         <v>0</v>
       </c>
       <c r="O47" t="n">
-        <v>108.6206896551724</v>
+        <v>71.12068965517241</v>
       </c>
       <c r="P47" t="n">
-        <v>0</v>
+        <v>95.74468085106383</v>
       </c>
       <c r="Q47" t="n">
-        <v>155.5555555555556</v>
+        <v>114.6198830409357</v>
       </c>
       <c r="R47" t="n">
         <v>0</v>
@@ -3196,38 +3196,38 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Ivan Ribarić</t>
+          <t>Petar Prugovečki</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>627.9315798128648</v>
+        <v>632.8560250711039</v>
       </c>
       <c r="C48" t="n">
-        <v>42.03389830508475</v>
+        <v>66.4406779661017</v>
       </c>
       <c r="D48" t="n">
-        <v>63.03030303030303</v>
+        <v>65.45454545454545</v>
       </c>
       <c r="E48" t="n">
         <v>52.22222222222222</v>
       </c>
       <c r="F48" t="n">
-        <v>64.61538461538461</v>
+        <v>70.76923076923077</v>
       </c>
       <c r="G48" t="n">
-        <v>42.75862068965517</v>
+        <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>53.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>54.15384615384616</v>
+        <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>58.6046511627907</v>
+        <v>0</v>
       </c>
       <c r="K48" t="n">
-        <v>0</v>
+        <v>113.7931034482759</v>
       </c>
       <c r="L48" t="n">
         <v>0</v>
@@ -3239,13 +3239,13 @@
         <v>0</v>
       </c>
       <c r="O48" t="n">
-        <v>76.29310344827586</v>
+        <v>108.6206896551724</v>
       </c>
       <c r="P48" t="n">
-        <v>111.7021276595745</v>
+        <v>0</v>
       </c>
       <c r="Q48" t="n">
-        <v>146.1988304093567</v>
+        <v>155.5555555555556</v>
       </c>
       <c r="R48" t="n">
         <v>0</v>
@@ -3254,56 +3254,56 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Josip Rončević</t>
+          <t>Ivan Ribarić</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>626.1930968355293</v>
+        <v>627.9315798128648</v>
       </c>
       <c r="C49" t="n">
-        <v>50.16949152542373</v>
+        <v>42.03389830508475</v>
       </c>
       <c r="D49" t="n">
-        <v>58.18181818181819</v>
+        <v>63.03030303030303</v>
       </c>
       <c r="E49" t="n">
-        <v>47.77777777777778</v>
+        <v>52.22222222222222</v>
       </c>
       <c r="F49" t="n">
-        <v>0</v>
+        <v>64.61538461538461</v>
       </c>
       <c r="G49" t="n">
-        <v>62.06896551724138</v>
+        <v>42.75862068965517</v>
       </c>
       <c r="H49" t="n">
-        <v>52.22222222222222</v>
+        <v>53.33333333333333</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>54.15384615384616</v>
       </c>
       <c r="J49" t="n">
-        <v>0</v>
+        <v>58.6046511627907</v>
       </c>
       <c r="K49" t="n">
         <v>0</v>
       </c>
       <c r="L49" t="n">
-        <v>135.1351351351351</v>
+        <v>0</v>
       </c>
       <c r="M49" t="n">
-        <v>126.2411347517731</v>
+        <v>0</v>
       </c>
       <c r="N49" t="n">
         <v>0</v>
       </c>
       <c r="O49" t="n">
-        <v>94.39655172413792</v>
+        <v>76.29310344827586</v>
       </c>
       <c r="P49" t="n">
-        <v>0</v>
+        <v>111.7021276595745</v>
       </c>
       <c r="Q49" t="n">
-        <v>0</v>
+        <v>146.1988304093567</v>
       </c>
       <c r="R49" t="n">
         <v>0</v>
@@ -3312,142 +3312,142 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Josip Maskaljević</t>
+          <t>Josip Rončević</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>621.0950927729841</v>
+        <v>626.1930968355293</v>
       </c>
       <c r="C50" t="n">
-        <v>0</v>
+        <v>50.16949152542373</v>
       </c>
       <c r="D50" t="n">
-        <v>0</v>
+        <v>58.18181818181819</v>
       </c>
       <c r="E50" t="n">
-        <v>0</v>
+        <v>47.77777777777778</v>
       </c>
       <c r="F50" t="n">
         <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>38.62068965517241</v>
+        <v>62.06896551724138</v>
       </c>
       <c r="H50" t="n">
         <v>52.22222222222222</v>
       </c>
       <c r="I50" t="n">
-        <v>43.07692307692307</v>
+        <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>32.55813953488372</v>
+        <v>0</v>
       </c>
       <c r="K50" t="n">
         <v>0</v>
       </c>
       <c r="L50" t="n">
-        <v>0</v>
+        <v>135.1351351351351</v>
       </c>
       <c r="M50" t="n">
-        <v>90.78014184397163</v>
+        <v>126.2411347517731</v>
       </c>
       <c r="N50" t="n">
-        <v>93.10344827586208</v>
+        <v>0</v>
       </c>
       <c r="O50" t="n">
-        <v>0</v>
+        <v>94.39655172413792</v>
       </c>
       <c r="P50" t="n">
-        <v>76.59574468085106</v>
+        <v>0</v>
       </c>
       <c r="Q50" t="n">
-        <v>108.7719298245614</v>
+        <v>0</v>
       </c>
       <c r="R50" t="n">
-        <v>85.36585365853658</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Sandro Jažo</t>
+          <t>Josip Maskaljević</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>617.4740797943604</v>
+        <v>621.0950927729841</v>
       </c>
       <c r="C51" t="n">
-        <v>40.67796610169491</v>
+        <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>54.54545454545454</v>
+        <v>0</v>
       </c>
       <c r="E51" t="n">
-        <v>55.55555555555556</v>
+        <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>47.69230769230769</v>
+        <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>0</v>
+        <v>38.62068965517241</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>52.22222222222222</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>43.07692307692307</v>
       </c>
       <c r="J51" t="n">
-        <v>0</v>
+        <v>32.55813953488372</v>
       </c>
       <c r="K51" t="n">
-        <v>71.55172413793103</v>
+        <v>0</v>
       </c>
       <c r="L51" t="n">
-        <v>164.8648648648649</v>
+        <v>0</v>
       </c>
       <c r="M51" t="n">
-        <v>0</v>
+        <v>90.78014184397163</v>
       </c>
       <c r="N51" t="n">
-        <v>102.4137931034483</v>
+        <v>93.10344827586208</v>
       </c>
       <c r="O51" t="n">
-        <v>80.17241379310344</v>
+        <v>0</v>
       </c>
       <c r="P51" t="n">
-        <v>0</v>
+        <v>76.59574468085106</v>
       </c>
       <c r="Q51" t="n">
-        <v>0</v>
+        <v>108.7719298245614</v>
       </c>
       <c r="R51" t="n">
-        <v>0</v>
+        <v>85.36585365853658</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Matko Šimić</t>
+          <t>Sandro Jažo</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>609.4864279743803</v>
+        <v>617.4740797943604</v>
       </c>
       <c r="C52" t="n">
-        <v>0</v>
+        <v>40.67796610169491</v>
       </c>
       <c r="D52" t="n">
         <v>54.54545454545454</v>
       </c>
       <c r="E52" t="n">
-        <v>52.22222222222222</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="F52" t="n">
-        <v>0</v>
+        <v>47.69230769230769</v>
       </c>
       <c r="G52" t="n">
-        <v>46.89655172413793</v>
+        <v>0</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3459,25 +3459,25 @@
         <v>0</v>
       </c>
       <c r="K52" t="n">
-        <v>0</v>
+        <v>71.55172413793103</v>
       </c>
       <c r="L52" t="n">
-        <v>0</v>
+        <v>164.8648648648649</v>
       </c>
       <c r="M52" t="n">
         <v>0</v>
       </c>
       <c r="N52" t="n">
-        <v>109.6551724137931</v>
+        <v>102.4137931034483</v>
       </c>
       <c r="O52" t="n">
-        <v>89.22413793103449</v>
+        <v>80.17241379310344</v>
       </c>
       <c r="P52" t="n">
-        <v>109.5744680851064</v>
+        <v>0</v>
       </c>
       <c r="Q52" t="n">
-        <v>147.3684210526316</v>
+        <v>0</v>
       </c>
       <c r="R52" t="n">
         <v>0</v>
@@ -3486,35 +3486,35 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Hrvoje Šimić</t>
+          <t>Matko Šimić</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>604.5357666273331</v>
+        <v>609.4864279743803</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>0</v>
+        <v>54.54545454545454</v>
       </c>
       <c r="E53" t="n">
-        <v>0</v>
+        <v>52.22222222222222</v>
       </c>
       <c r="F53" t="n">
         <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>28.96551724137931</v>
+        <v>46.89655172413793</v>
       </c>
       <c r="H53" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>59.07692307692308</v>
+        <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>43.72093023255814</v>
+        <v>0</v>
       </c>
       <c r="K53" t="n">
         <v>0</v>
@@ -3526,77 +3526,77 @@
         <v>0</v>
       </c>
       <c r="N53" t="n">
-        <v>81.72413793103448</v>
+        <v>109.6551724137931</v>
       </c>
       <c r="O53" t="n">
-        <v>63.36206896551725</v>
+        <v>89.22413793103449</v>
       </c>
       <c r="P53" t="n">
-        <v>87.23404255319149</v>
+        <v>109.5744680851064</v>
       </c>
       <c r="Q53" t="n">
-        <v>86.54970760233918</v>
+        <v>147.3684210526316</v>
       </c>
       <c r="R53" t="n">
-        <v>93.90243902439023</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Vanja Galović</t>
+          <t>Hrvoje Šimić</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>589.2365180398556</v>
+        <v>604.5357666273331</v>
       </c>
       <c r="C54" t="n">
-        <v>31.1864406779661</v>
+        <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>49.6969696969697</v>
+        <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F54" t="n">
         <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>27.58620689655173</v>
+        <v>28.96551724137931</v>
       </c>
       <c r="H54" t="n">
-        <v>37.77777777777778</v>
+        <v>60</v>
       </c>
       <c r="I54" t="n">
-        <v>40.61538461538461</v>
+        <v>59.07692307692308</v>
       </c>
       <c r="J54" t="n">
-        <v>0</v>
+        <v>43.72093023255814</v>
       </c>
       <c r="K54" t="n">
-        <v>58.62068965517242</v>
+        <v>0</v>
       </c>
       <c r="L54" t="n">
-        <v>82.43243243243244</v>
+        <v>0</v>
       </c>
       <c r="M54" t="n">
-        <v>80.85106382978722</v>
+        <v>0</v>
       </c>
       <c r="N54" t="n">
-        <v>91.03448275862068</v>
+        <v>81.72413793103448</v>
       </c>
       <c r="O54" t="n">
-        <v>54.31034482758621</v>
+        <v>63.36206896551725</v>
       </c>
       <c r="P54" t="n">
-        <v>67.02127659574468</v>
+        <v>87.23404255319149</v>
       </c>
       <c r="Q54" t="n">
-        <v>0</v>
+        <v>86.54970760233918</v>
       </c>
       <c r="R54" t="n">
-        <v>0</v>
+        <v>93.90243902439023</v>
       </c>
     </row>
     <row r="55">
@@ -11606,7 +11606,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Dominik Hrestak</t>
+          <t>Darko Laklija</t>
         </is>
       </c>
       <c r="B193" t="n">
@@ -11722,7 +11722,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Darko Laklija</t>
+          <t>Filip Drezgić</t>
         </is>
       </c>
       <c r="B195" t="n">
@@ -11780,7 +11780,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Filip Drezgić</t>
+          <t>Dominik Hrestak</t>
         </is>
       </c>
       <c r="B196" t="n">
@@ -12998,7 +12998,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Vladimir Dadić</t>
+          <t>Ivan Požežanac-Hajić</t>
         </is>
       </c>
       <c r="B217" t="n">
@@ -13056,7 +13056,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Ivan Požežanac-Hajić</t>
+          <t>Vladimir Dadić</t>
         </is>
       </c>
       <c r="B218" t="n">
@@ -13520,7 +13520,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Antun Akšamović</t>
+          <t>Ljerka Karleuša Mujkić</t>
         </is>
       </c>
       <c r="B226" t="n">
@@ -13578,7 +13578,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Ljerka Karleuša Mujkić</t>
+          <t>Antun Akšamović</t>
         </is>
       </c>
       <c r="B227" t="n">
@@ -13926,7 +13926,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>Ivan Radun</t>
+          <t>Krste Gašperov</t>
         </is>
       </c>
       <c r="B233" t="n">
@@ -14042,7 +14042,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Krste Gašperov</t>
+          <t>Ivan Radun</t>
         </is>
       </c>
       <c r="B235" t="n">
@@ -14448,7 +14448,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>Jakov Kusić</t>
+          <t>Matko Kreber</t>
         </is>
       </c>
       <c r="B242" t="n">
@@ -14506,7 +14506,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>Matko Kreber</t>
+          <t>Jakov Kusić</t>
         </is>
       </c>
       <c r="B243" t="n">
@@ -14680,7 +14680,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>Vedran Kos</t>
+          <t>Ivan Nešković</t>
         </is>
       </c>
       <c r="B246" t="n">
@@ -14738,7 +14738,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>Ivan Nešković</t>
+          <t>Vedran Kos</t>
         </is>
       </c>
       <c r="B247" t="n">
@@ -14912,7 +14912,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>Matko Dujmovic</t>
+          <t>Jurica Picak</t>
         </is>
       </c>
       <c r="B250" t="n">
@@ -14970,7 +14970,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>Jurica Picak</t>
+          <t>Kristian Bešker</t>
         </is>
       </c>
       <c r="B251" t="n">
@@ -15028,7 +15028,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>Kristian Bešker</t>
+          <t>Matko Dujmovic</t>
         </is>
       </c>
       <c r="B252" t="n">
@@ -15260,7 +15260,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>Bernard Grubišić</t>
+          <t>Hrvoje Ðurak</t>
         </is>
       </c>
       <c r="B256" t="n">
@@ -15318,7 +15318,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>Hrvoje Ðurak</t>
+          <t>Bernard Grubišić</t>
         </is>
       </c>
       <c r="B257" t="n">
@@ -15376,7 +15376,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>Marin Petrović</t>
+          <t>Filip Kopecki</t>
         </is>
       </c>
       <c r="B258" t="n">
@@ -15434,7 +15434,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>Filip Kopecki</t>
+          <t>Arandjel Smiljanic</t>
         </is>
       </c>
       <c r="B259" t="n">
@@ -15492,7 +15492,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>Arandjel Smiljanic</t>
+          <t>Marin Petrović</t>
         </is>
       </c>
       <c r="B260" t="n">
@@ -16710,7 +16710,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>Ivan Skorić</t>
+          <t>Paško Majcenović</t>
         </is>
       </c>
       <c r="B281" t="n">
@@ -16768,7 +16768,7 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>Paško Majcenović</t>
+          <t>Ivan Skorić</t>
         </is>
       </c>
       <c r="B282" t="n">
@@ -17058,7 +17058,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>Nikola Philipp</t>
+          <t>David Koprek</t>
         </is>
       </c>
       <c r="B287" t="n">
@@ -17089,7 +17089,7 @@
         <v>0</v>
       </c>
       <c r="K287" t="n">
-        <v>0</v>
+        <v>56.89655172413793</v>
       </c>
       <c r="L287" t="n">
         <v>0</v>
@@ -17101,7 +17101,7 @@
         <v>0</v>
       </c>
       <c r="O287" t="n">
-        <v>56.89655172413793</v>
+        <v>0</v>
       </c>
       <c r="P287" t="n">
         <v>0</v>
@@ -17116,7 +17116,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>Dario Galinec</t>
+          <t>Nikola Philipp</t>
         </is>
       </c>
       <c r="B288" t="n">
@@ -17174,7 +17174,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>David Koprek</t>
+          <t>Dario Galinec</t>
         </is>
       </c>
       <c r="B289" t="n">
@@ -17205,19 +17205,19 @@
         <v>0</v>
       </c>
       <c r="K289" t="n">
+        <v>0</v>
+      </c>
+      <c r="L289" t="n">
+        <v>0</v>
+      </c>
+      <c r="M289" t="n">
+        <v>0</v>
+      </c>
+      <c r="N289" t="n">
+        <v>0</v>
+      </c>
+      <c r="O289" t="n">
         <v>56.89655172413793</v>
-      </c>
-      <c r="L289" t="n">
-        <v>0</v>
-      </c>
-      <c r="M289" t="n">
-        <v>0</v>
-      </c>
-      <c r="N289" t="n">
-        <v>0</v>
-      </c>
-      <c r="O289" t="n">
-        <v>0</v>
       </c>
       <c r="P289" t="n">
         <v>0</v>
@@ -17348,7 +17348,7 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>Marko Mandarić</t>
+          <t>Ozren Naglav</t>
         </is>
       </c>
       <c r="B292" t="n">
@@ -17406,7 +17406,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>Ozren Naglav</t>
+          <t>Marko Mandarić</t>
         </is>
       </c>
       <c r="B293" t="n">
@@ -17580,7 +17580,7 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>Željko Pavlović</t>
+          <t>Ivan Horvat</t>
         </is>
       </c>
       <c r="B296" t="n">
@@ -17638,7 +17638,7 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>Ivan Horvat</t>
+          <t>Željko Pavlović</t>
         </is>
       </c>
       <c r="B297" t="n">
@@ -18218,7 +18218,7 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>Bruno Grbavac</t>
+          <t>Srđan Bilić</t>
         </is>
       </c>
       <c r="B307" t="n">
@@ -18276,7 +18276,7 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>Srđan Bilić</t>
+          <t>Bruno Grbavac</t>
         </is>
       </c>
       <c r="B308" t="n">
@@ -18566,7 +18566,7 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>Dunja Galinec</t>
+          <t>Ante Varvoda</t>
         </is>
       </c>
       <c r="B313" t="n">
@@ -18682,7 +18682,7 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>Ante Varvoda</t>
+          <t>Dunja Galinec</t>
         </is>
       </c>
       <c r="B315" t="n">
@@ -19320,7 +19320,7 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>Matej Simić</t>
+          <t>Karlo Biličić</t>
         </is>
       </c>
       <c r="B326" t="n">
@@ -19378,7 +19378,7 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>Karlo Biličić</t>
+          <t>Matej Simić</t>
         </is>
       </c>
       <c r="B327" t="n">
@@ -19784,7 +19784,7 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>Zoran Lendić</t>
+          <t>Danijel Kovačević</t>
         </is>
       </c>
       <c r="B334" t="n">
@@ -19842,7 +19842,7 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>Danijel Kovačević</t>
+          <t>Zoran Lendić</t>
         </is>
       </c>
       <c r="B335" t="n">
@@ -20306,7 +20306,7 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>Miroslav Klen</t>
+          <t>Ivan Salečić</t>
         </is>
       </c>
       <c r="B343" t="n">
@@ -20316,13 +20316,13 @@
         <v>0</v>
       </c>
       <c r="D343" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="E343" t="n">
         <v>0</v>
       </c>
       <c r="F343" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G343" t="n">
         <v>0</v>
@@ -20364,7 +20364,7 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>Ivan Salečić</t>
+          <t>Miroslav Klen</t>
         </is>
       </c>
       <c r="B344" t="n">
@@ -20374,13 +20374,13 @@
         <v>0</v>
       </c>
       <c r="D344" t="n">
+        <v>0</v>
+      </c>
+      <c r="E344" t="n">
+        <v>0</v>
+      </c>
+      <c r="F344" t="n">
         <v>40</v>
-      </c>
-      <c r="E344" t="n">
-        <v>0</v>
-      </c>
-      <c r="F344" t="n">
-        <v>0</v>
       </c>
       <c r="G344" t="n">
         <v>0</v>
@@ -21640,7 +21640,7 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>Darka Pribudić</t>
+          <t>Slaven Periškić</t>
         </is>
       </c>
       <c r="B366" t="n">
@@ -21653,16 +21653,16 @@
         <v>0</v>
       </c>
       <c r="E366" t="n">
+        <v>0</v>
+      </c>
+      <c r="F366" t="n">
+        <v>0</v>
+      </c>
+      <c r="G366" t="n">
+        <v>0</v>
+      </c>
+      <c r="H366" t="n">
         <v>26.66666666666666</v>
-      </c>
-      <c r="F366" t="n">
-        <v>0</v>
-      </c>
-      <c r="G366" t="n">
-        <v>0</v>
-      </c>
-      <c r="H366" t="n">
-        <v>0</v>
       </c>
       <c r="I366" t="n">
         <v>0</v>
@@ -21698,7 +21698,7 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>Slaven Periškić</t>
+          <t>Darka Pribudić</t>
         </is>
       </c>
       <c r="B367" t="n">
@@ -21711,7 +21711,7 @@
         <v>0</v>
       </c>
       <c r="E367" t="n">
-        <v>0</v>
+        <v>26.66666666666666</v>
       </c>
       <c r="F367" t="n">
         <v>0</v>
@@ -21720,7 +21720,7 @@
         <v>0</v>
       </c>
       <c r="H367" t="n">
-        <v>26.66666666666666</v>
+        <v>0</v>
       </c>
       <c r="I367" t="n">
         <v>0</v>
